--- a/doc/外部設計書/外部設計書_F2_fireworks_ストーリー.xlsx
+++ b/doc/外部設計書/外部設計書_F2_fireworks_ストーリー.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431648CC-63AA-419A-B163-268FB0877811}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8D4229-E73F-42AA-A24D-0904C31DDD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外部設計書" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -193,6 +193,13 @@
   </si>
   <si>
     <t>memoly</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>南</t>
+    <rPh sb="0" eb="1">
+      <t>ミナミ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -715,16 +722,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>190496</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>145141</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>126996</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>72570</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>54260</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>117432</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>244760</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>44861</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -739,7 +746,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2222496" y="1859641"/>
+          <a:off x="380996" y="1406070"/>
           <a:ext cx="3419764" cy="4353791"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -786,89 +793,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>49645</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>81644</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>118918</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>174914</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="テキスト ボックス 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7432A744-FB42-453F-A6E3-7017B068BA8E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6907645" y="1543050"/>
-          <a:ext cx="577273" cy="727364"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>1</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>199572</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>154215</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>54429</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>154215</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>235857</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>81644</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -883,7 +817,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2231572" y="1868715"/>
+          <a:off x="381000" y="1415144"/>
           <a:ext cx="3410857" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -929,16 +863,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>58145</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>119534</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>248645</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>46963</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>72572</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9072</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>117928</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -953,7 +887,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2344145" y="2024534"/>
+          <a:off x="502645" y="1570963"/>
           <a:ext cx="268427" cy="261465"/>
           <a:chOff x="6582064" y="8647545"/>
           <a:chExt cx="415636" cy="374074"/>
@@ -1084,16 +1018,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>167575</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>46265</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>31503</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>182339</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>81645</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>9073</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>72571</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1108,8 +1042,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6009575" y="4618265"/>
-          <a:ext cx="3724070" cy="1486808"/>
+          <a:off x="5111503" y="5897339"/>
+          <a:ext cx="3089068" cy="389162"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1138,7 +1072,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -1146,13 +1080,25 @@
             <a:t>Js</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>でスライドショーのライブラリ</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1160,16 +1106,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>212932</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>906</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>31503</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>182335</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>99785</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>81643</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>117929</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>163287</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1184,8 +1130,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5800932" y="2096406"/>
-          <a:ext cx="6744853" cy="2557237"/>
+          <a:off x="285503" y="5706835"/>
+          <a:ext cx="6182426" cy="2076452"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1214,14 +1160,14 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>スライドショーの種類</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
             <a:solidFill>
               <a:srgbClr val="FF0000"/>
             </a:solidFill>
@@ -1229,14 +1175,14 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>１．思い出ジャンルからランダムな画像</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
             <a:solidFill>
               <a:srgbClr val="FF0000"/>
             </a:solidFill>
@@ -1244,14 +1190,14 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>２．一年前の画像があれば出力</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
             <a:solidFill>
               <a:srgbClr val="FF0000"/>
             </a:solidFill>
@@ -1259,14 +1205,14 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>３．飲食店ジャンルからランダムな画像</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
             <a:solidFill>
               <a:srgbClr val="FF0000"/>
             </a:solidFill>
@@ -1274,7 +1220,7 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -1288,16 +1234,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>235858</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>181429</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>172358</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>108858</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>117929</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>54429</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>181429</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1312,7 +1258,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4045858" y="2848429"/>
+          <a:off x="2204358" y="2394858"/>
           <a:ext cx="1406071" cy="1406071"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1348,16 +1294,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>117931</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>154216</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>54431</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>81645</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>2</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>36287</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190502</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>154216</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1372,7 +1318,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2403931" y="4535716"/>
+          <a:off x="562431" y="4082145"/>
           <a:ext cx="1406071" cy="1406071"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1408,16 +1354,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>36287</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>172358</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>108858</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>172358</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>136071</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>54429</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>181429</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1432,7 +1378,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4100287" y="4445000"/>
+          <a:off x="2204358" y="4109358"/>
           <a:ext cx="1406071" cy="1406071"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1468,16 +1414,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>81644</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>2</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>18144</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>117931</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>217715</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>72573</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>154215</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1492,7 +1438,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2367644" y="2857502"/>
+          <a:off x="526144" y="2403931"/>
           <a:ext cx="1406071" cy="1406071"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1521,6 +1467,1137 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>54429</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>172193</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>53934</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="正方形/長方形 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B23FE57-9052-418E-B337-D90356011462}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5134429" y="1415143"/>
+          <a:ext cx="3419764" cy="4353791"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>63505</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>90717</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>172362</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>90717</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="正方形/長方形 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{354A1F53-6E0F-4737-8597-0DF485FFE78C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5143505" y="1424217"/>
+          <a:ext cx="3410857" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="90000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>176078</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>56036</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>190505</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>127001</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="67" name="グループ化 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7610C0A3-4C39-4C05-8FA2-15F38C6D23E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5256078" y="1580036"/>
+          <a:ext cx="268427" cy="261465"/>
+          <a:chOff x="6582064" y="8647545"/>
+          <a:chExt cx="415636" cy="374074"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="68" name="直線コネクタ 67">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3F04F63-77EF-B66E-2625-F22B27F14CFC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6582064" y="8647545"/>
+            <a:ext cx="415636" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="69" name="直線コネクタ 68">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F102B1D0-7F57-D195-4B64-D10EAF553462}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6582064" y="8834582"/>
+            <a:ext cx="415636" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="70" name="直線コネクタ 69">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C410900-850F-1DA3-C1E6-B98355C9147A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6582064" y="9021619"/>
+            <a:ext cx="415636" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>27219</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>181433</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>217713</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>181429</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="四角形: 角を丸くする 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E43767AC-4062-48EA-99FF-266374A2D40D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5361219" y="2276933"/>
+          <a:ext cx="2984494" cy="3238496"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>90715</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>181429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>72572</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>181429</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="矢印: 下カーブ 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7611307-A27C-D16E-ACFB-CB458A6E8B99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3900715" y="3038929"/>
+          <a:ext cx="1251857" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedDownArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>81643</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>172357</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>99786</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="テキスト ボックス 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E08C8FB-35BB-4A09-8541-972B6A9FBF76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3637643" y="2267857"/>
+          <a:ext cx="2077357" cy="689429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>クリックで全画面、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>スライドショー開始</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>244928</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>99786</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>72571</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="テキスト ボックス 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{083A8488-E4FE-4D94-AC8F-72759941FD44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3292928" y="3909786"/>
+          <a:ext cx="3247572" cy="1115785"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ページ遷移 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>or</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>拡大表示（モーダルウィンドウ）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　→</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>JQuery</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>217713</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>117930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>36284</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>181430</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="テキスト ボックス 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9FE0D40-AC02-4849-A426-74BE1BF58163}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5043713" y="6594930"/>
+          <a:ext cx="3374571" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>自分で作成する機能をつけるか</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>131288</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>200561</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47914</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7432A744-FB42-453F-A6E3-7017B068BA8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="893288" y="1416050"/>
+          <a:ext cx="577273" cy="727364"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>18145</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>18143</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="テキスト ボックス 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B631939F-8C5D-4CCF-93A1-5DCE684608AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2286003" y="2413000"/>
+          <a:ext cx="526142" cy="462643"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>113145</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>82549</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>182418</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47913</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="87" name="テキスト ボックス 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED0ED30A-2E14-0895-610B-718CE7E54499}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="621145" y="2368549"/>
+          <a:ext cx="577273" cy="727364"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>222002</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>37275</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>47914</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="テキスト ボックス 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{938C3EAB-CF0B-09E1-DA27-CDD28EBE8616}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2254002" y="4083050"/>
+          <a:ext cx="577273" cy="727364"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>222001</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>37274</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>111414</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="テキスト ボックス 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D352315C-2D78-FCF3-C3F5-A2B0B9B2E670}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5556001" y="2432050"/>
+          <a:ext cx="577273" cy="727364"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>6</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>31501</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>127908</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>100774</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>93272</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="テキスト ボックス 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5B908AA-AA6E-F8E4-2696-BD70DF69D8E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="539501" y="4128408"/>
+          <a:ext cx="577273" cy="727364"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1852,8 +2929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W30" sqref="W30"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AH2" sqref="AH2:AN2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1908,7 +2985,7 @@
       </c>
       <c r="AG1" s="43"/>
       <c r="AH1" s="35" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AI1" s="35"/>
       <c r="AJ1" s="35"/>
@@ -1962,7 +3039,7 @@
       </c>
       <c r="AG2" s="39"/>
       <c r="AH2" s="40">
-        <v>45083</v>
+        <v>45084</v>
       </c>
       <c r="AI2" s="41"/>
       <c r="AJ2" s="41"/>

--- a/doc/外部設計書/外部設計書_F2_fireworks_ストーリー.xlsx
+++ b/doc/外部設計書/外部設計書_F2_fireworks_ストーリー.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8D4229-E73F-42AA-A24D-0904C31DDD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68CC234D-F30A-452A-93C5-458789B60FDE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外部設計書" sheetId="1" r:id="rId1"/>
@@ -181,10 +181,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ドロワーメニュー</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>山下</t>
     <rPh sb="0" eb="2">
       <t>ヤマシタ</t>
@@ -200,6 +196,10 @@
     <rPh sb="0" eb="1">
       <t>ミナミ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ストーリー</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2930,7 +2930,7 @@
   <dimension ref="A1:AN109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AH2" sqref="AH2:AN2"/>
+      <selection activeCell="AT7" sqref="AT7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2957,7 +2957,7 @@
       <c r="L1" s="28"/>
       <c r="M1" s="28"/>
       <c r="N1" s="28" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O1" s="28"/>
       <c r="P1" s="28"/>
@@ -2972,7 +2972,7 @@
       </c>
       <c r="X1" s="28"/>
       <c r="Y1" s="28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z1" s="28"/>
       <c r="AA1" s="28"/>
@@ -2985,7 +2985,7 @@
       </c>
       <c r="AG1" s="43"/>
       <c r="AH1" s="35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI1" s="35"/>
       <c r="AJ1" s="35"/>
@@ -3011,7 +3011,7 @@
       <c r="L2" s="37"/>
       <c r="M2" s="37"/>
       <c r="N2" s="37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O2" s="37"/>
       <c r="P2" s="37"/>

--- a/doc/外部設計書/外部設計書_F2_fireworks_ストーリー.xlsx
+++ b/doc/外部設計書/外部設計書_F2_fireworks_ストーリー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68CC234D-F30A-452A-93C5-458789B60FDE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD5D4F2-9355-4A85-AF3C-CA38E1515BE0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外部設計書" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,23 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">外部設計書!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -200,6 +211,120 @@
   </si>
   <si>
     <t>ストーリー</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>menu</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ドロワーメニュー</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>button</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>drawer</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>slide1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>slide2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>slide3</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>slide4</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>スライド1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>スライド2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>スライド3</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>スライド4</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Image</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>拡大表示ならモーダルウィンドウ(JQuely)</t>
+    <rPh sb="0" eb="2">
+      <t>カクダイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>slideshow</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>スライドショー</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>スライド種類</t>
+    <rPh sb="4" eb="6">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・ジャンルごとにランダムな画像</t>
+    <rPh sb="13" eb="15">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・～ヶ月、年前のランダムな画像(無ければメッセージ)</t>
+    <rPh sb="3" eb="4">
+      <t>ゲツ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・同スポットの全ての画像</t>
+    <rPh sb="1" eb="2">
+      <t>ドウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Image Slider</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -575,7 +700,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -700,6 +825,16 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1114,8 +1249,8 @@
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>117929</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>163287</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>102577</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1131,7 +1266,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="285503" y="5706835"/>
-          <a:ext cx="6182426" cy="2076452"/>
+          <a:ext cx="6182426" cy="1634742"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2603,6 +2738,788 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>249115</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>156309</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>112346</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="12" name="グループ化 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9B15402-A61F-4845-8B61-9368A58DF824}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="503115" y="7776309"/>
+          <a:ext cx="5959231" cy="2459891"/>
+          <a:chOff x="561731" y="8044962"/>
+          <a:chExt cx="5959231" cy="2212731"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="テキスト ボックス 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA630544-194F-4738-A99C-9A1609ED6F27}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="561731" y="8044962"/>
+            <a:ext cx="5959231" cy="2212731"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>「１　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>ドロワー</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>メニュー」クリック</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>	</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>ドロワーメニュー表示</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>				</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>　　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>参照</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>「２</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>, </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>３</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>, </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>４</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>, </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>５　アイコン、画像」クリック</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>	</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>全画面</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>拡大</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>表示 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>or </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>ページ遷移して、背景を暗くする</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>	</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>他</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>3</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>つのアイコンは非表示</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>「６　スライドショー」</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>	</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>クリックされたアイコンに</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>応じて、</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Google Photos </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>の機能で画像ファイルを読み込む</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>	</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>読み込んだ画像ファイルを一覧で表示し、</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>横 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>or</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> 縦向きにスライドさせる</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>	</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>スライドは自動</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>でもフリック</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>でも可</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="テキスト ボックス 10">
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D18E7CC0-89E7-4503-BA40-63D448A22625}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1523722" y="8418802"/>
+            <a:ext cx="2961751" cy="165281"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>外部設計書</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>_F2_fireworks_</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>ドロワーメニュー</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>.xlsx</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2929,13 +3846,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AT7" sqref="AT7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AP12" sqref="AP12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="3.6328125" style="1"/>
+    <col min="1" max="29" width="3.6328125" style="1"/>
+    <col min="30" max="30" width="4.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="3.6328125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -6136,19 +7055,29 @@
     <row r="79" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="6"/>
       <c r="B79" s="12"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="14"/>
+      <c r="C79" s="13">
+        <v>1</v>
+      </c>
+      <c r="D79" s="14" t="s">
+        <v>25</v>
+      </c>
       <c r="E79" s="15"/>
       <c r="F79" s="15"/>
       <c r="G79" s="13"/>
-      <c r="H79" s="14"/>
+      <c r="H79" s="14" t="s">
+        <v>26</v>
+      </c>
       <c r="I79" s="16"/>
       <c r="J79" s="15"/>
       <c r="K79" s="17"/>
-      <c r="L79" s="14"/>
+      <c r="L79" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="M79" s="15"/>
       <c r="N79" s="17"/>
-      <c r="O79" s="14"/>
+      <c r="O79" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="P79" s="15"/>
       <c r="Q79" s="15"/>
       <c r="R79" s="17"/>
@@ -6178,16 +7107,24 @@
     <row r="80" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="6"/>
       <c r="B80" s="12"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="14"/>
+      <c r="C80" s="13">
+        <v>2</v>
+      </c>
+      <c r="D80" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="E80" s="15"/>
       <c r="F80" s="15"/>
       <c r="G80" s="13"/>
-      <c r="H80" s="14"/>
+      <c r="H80" s="14" t="s">
+        <v>33</v>
+      </c>
       <c r="I80" s="16"/>
       <c r="J80" s="15"/>
       <c r="K80" s="17"/>
-      <c r="L80" s="14"/>
+      <c r="L80" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="M80" s="15"/>
       <c r="N80" s="17"/>
       <c r="O80" s="14"/>
@@ -6205,31 +7142,41 @@
       <c r="AA80" s="14"/>
       <c r="AB80" s="15"/>
       <c r="AC80" s="17"/>
-      <c r="AD80" s="14"/>
-      <c r="AE80" s="15"/>
-      <c r="AF80" s="15"/>
-      <c r="AG80" s="15"/>
-      <c r="AH80" s="15"/>
-      <c r="AI80" s="15"/>
-      <c r="AJ80" s="15"/>
-      <c r="AK80" s="15"/>
-      <c r="AL80" s="15"/>
-      <c r="AM80" s="18"/>
+      <c r="AD80" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE80" s="44"/>
+      <c r="AF80" s="44"/>
+      <c r="AG80" s="44"/>
+      <c r="AH80" s="44"/>
+      <c r="AI80" s="44"/>
+      <c r="AJ80" s="44"/>
+      <c r="AK80" s="44"/>
+      <c r="AL80" s="44"/>
+      <c r="AM80" s="5"/>
       <c r="AN80" s="7"/>
     </row>
     <row r="81" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="6"/>
       <c r="B81" s="12"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="14"/>
+      <c r="C81" s="13">
+        <v>3</v>
+      </c>
+      <c r="D81" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="E81" s="15"/>
       <c r="F81" s="15"/>
       <c r="G81" s="13"/>
-      <c r="H81" s="14"/>
+      <c r="H81" s="14" t="s">
+        <v>34</v>
+      </c>
       <c r="I81" s="16"/>
       <c r="J81" s="15"/>
       <c r="K81" s="17"/>
-      <c r="L81" s="14"/>
+      <c r="L81" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="M81" s="15"/>
       <c r="N81" s="17"/>
       <c r="O81" s="14"/>
@@ -6247,31 +7194,41 @@
       <c r="AA81" s="14"/>
       <c r="AB81" s="15"/>
       <c r="AC81" s="17"/>
-      <c r="AD81" s="14"/>
-      <c r="AE81" s="15"/>
-      <c r="AF81" s="15"/>
-      <c r="AG81" s="15"/>
-      <c r="AH81" s="15"/>
-      <c r="AI81" s="15"/>
-      <c r="AJ81" s="15"/>
-      <c r="AK81" s="15"/>
-      <c r="AL81" s="15"/>
-      <c r="AM81" s="18"/>
+      <c r="AD81" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE81" s="46"/>
+      <c r="AF81" s="46"/>
+      <c r="AG81" s="46"/>
+      <c r="AH81" s="46"/>
+      <c r="AI81" s="46"/>
+      <c r="AJ81" s="46"/>
+      <c r="AK81" s="46"/>
+      <c r="AL81" s="46"/>
+      <c r="AM81" s="7"/>
       <c r="AN81" s="7"/>
     </row>
     <row r="82" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="6"/>
       <c r="B82" s="12"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="14"/>
+      <c r="C82" s="13">
+        <v>4</v>
+      </c>
+      <c r="D82" s="14" t="s">
+        <v>31</v>
+      </c>
       <c r="E82" s="15"/>
       <c r="F82" s="15"/>
       <c r="G82" s="13"/>
-      <c r="H82" s="14"/>
+      <c r="H82" s="14" t="s">
+        <v>35</v>
+      </c>
       <c r="I82" s="16"/>
       <c r="J82" s="15"/>
       <c r="K82" s="17"/>
-      <c r="L82" s="14"/>
+      <c r="L82" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="M82" s="15"/>
       <c r="N82" s="17"/>
       <c r="O82" s="14"/>
@@ -6289,31 +7246,41 @@
       <c r="AA82" s="14"/>
       <c r="AB82" s="15"/>
       <c r="AC82" s="17"/>
-      <c r="AD82" s="14"/>
-      <c r="AE82" s="15"/>
-      <c r="AF82" s="15"/>
-      <c r="AG82" s="15"/>
-      <c r="AH82" s="15"/>
-      <c r="AI82" s="15"/>
-      <c r="AJ82" s="15"/>
-      <c r="AK82" s="15"/>
-      <c r="AL82" s="15"/>
-      <c r="AM82" s="18"/>
+      <c r="AD82" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE82" s="46"/>
+      <c r="AF82" s="46"/>
+      <c r="AG82" s="46"/>
+      <c r="AH82" s="46"/>
+      <c r="AI82" s="46"/>
+      <c r="AJ82" s="46"/>
+      <c r="AK82" s="46"/>
+      <c r="AL82" s="46"/>
+      <c r="AM82" s="7"/>
       <c r="AN82" s="7"/>
     </row>
     <row r="83" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="6"/>
       <c r="B83" s="12"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="14"/>
+      <c r="C83" s="13">
+        <v>5</v>
+      </c>
+      <c r="D83" s="14" t="s">
+        <v>32</v>
+      </c>
       <c r="E83" s="15"/>
       <c r="F83" s="15"/>
       <c r="G83" s="13"/>
-      <c r="H83" s="14"/>
+      <c r="H83" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="I83" s="16"/>
       <c r="J83" s="15"/>
       <c r="K83" s="17"/>
-      <c r="L83" s="14"/>
+      <c r="L83" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="M83" s="15"/>
       <c r="N83" s="17"/>
       <c r="O83" s="14"/>
@@ -6331,31 +7298,41 @@
       <c r="AA83" s="14"/>
       <c r="AB83" s="15"/>
       <c r="AC83" s="17"/>
-      <c r="AD83" s="14"/>
-      <c r="AE83" s="15"/>
-      <c r="AF83" s="15"/>
-      <c r="AG83" s="15"/>
-      <c r="AH83" s="15"/>
-      <c r="AI83" s="15"/>
-      <c r="AJ83" s="15"/>
-      <c r="AK83" s="15"/>
-      <c r="AL83" s="15"/>
-      <c r="AM83" s="18"/>
+      <c r="AD83" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE83" s="46"/>
+      <c r="AF83" s="46"/>
+      <c r="AG83" s="46"/>
+      <c r="AH83" s="46"/>
+      <c r="AI83" s="46"/>
+      <c r="AJ83" s="46"/>
+      <c r="AK83" s="46"/>
+      <c r="AL83" s="46"/>
+      <c r="AM83" s="7"/>
       <c r="AN83" s="7"/>
     </row>
     <row r="84" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="6"/>
       <c r="B84" s="12"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="14"/>
+      <c r="C84" s="13">
+        <v>6</v>
+      </c>
+      <c r="D84" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="E84" s="15"/>
       <c r="F84" s="15"/>
       <c r="G84" s="13"/>
-      <c r="H84" s="14"/>
+      <c r="H84" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="I84" s="16"/>
       <c r="J84" s="15"/>
       <c r="K84" s="17"/>
-      <c r="L84" s="14"/>
+      <c r="L84" s="14" t="s">
+        <v>45</v>
+      </c>
       <c r="M84" s="15"/>
       <c r="N84" s="17"/>
       <c r="O84" s="14"/>
@@ -6373,7 +7350,9 @@
       <c r="AA84" s="14"/>
       <c r="AB84" s="15"/>
       <c r="AC84" s="17"/>
-      <c r="AD84" s="14"/>
+      <c r="AD84" s="14" t="s">
+        <v>38</v>
+      </c>
       <c r="AE84" s="15"/>
       <c r="AF84" s="15"/>
       <c r="AG84" s="15"/>

--- a/doc/外部設計書/外部設計書_F2_fireworks_ストーリー.xlsx
+++ b/doc/外部設計書/外部設計書_F2_fireworks_ストーリー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD5D4F2-9355-4A85-AF3C-CA38E1515BE0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6FE252D-4BC5-4355-86E9-57E5B0682468}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外部設計書" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -321,10 +321,6 @@
     <rPh sb="10" eb="12">
       <t>ガゾウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Image Slider</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -700,7 +696,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -750,6 +746,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -825,16 +828,6 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3846,8 +3839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AP12" sqref="AP12"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R84" sqref="R84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3858,158 +3851,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="28" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28" t="s">
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28" t="s">
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28" t="s">
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="43" t="s">
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="43"/>
-      <c r="AH1" s="35" t="s">
+      <c r="AG1" s="46"/>
+      <c r="AH1" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="35"/>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="35"/>
-      <c r="AN1" s="36"/>
+      <c r="AI1" s="38"/>
+      <c r="AJ1" s="38"/>
+      <c r="AK1" s="38"/>
+      <c r="AL1" s="38"/>
+      <c r="AM1" s="38"/>
+      <c r="AN1" s="39"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="37" t="s">
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37" t="s">
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37" t="s">
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="38">
+      <c r="X2" s="40"/>
+      <c r="Y2" s="41">
         <v>45083</v>
       </c>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="39" t="s">
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40"/>
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="39"/>
-      <c r="AH2" s="40">
+      <c r="AG2" s="42"/>
+      <c r="AH2" s="43">
         <v>45084</v>
       </c>
-      <c r="AI2" s="41"/>
-      <c r="AJ2" s="41"/>
-      <c r="AK2" s="41"/>
-      <c r="AL2" s="41"/>
-      <c r="AM2" s="41"/>
-      <c r="AN2" s="42"/>
+      <c r="AI2" s="44"/>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="44"/>
+      <c r="AL2" s="44"/>
+      <c r="AM2" s="44"/>
+      <c r="AN2" s="45"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="29" t="s">
+      <c r="A3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="30"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33"/>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="33"/>
-      <c r="AB3" s="33"/>
-      <c r="AC3" s="33"/>
-      <c r="AD3" s="33"/>
-      <c r="AE3" s="33"/>
-      <c r="AF3" s="33"/>
-      <c r="AG3" s="33"/>
-      <c r="AH3" s="33"/>
-      <c r="AI3" s="33"/>
-      <c r="AJ3" s="33"/>
-      <c r="AK3" s="33"/>
-      <c r="AL3" s="33"/>
-      <c r="AM3" s="33"/>
-      <c r="AN3" s="34"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="36"/>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="36"/>
+      <c r="AE3" s="36"/>
+      <c r="AF3" s="36"/>
+      <c r="AG3" s="36"/>
+      <c r="AH3" s="36"/>
+      <c r="AI3" s="36"/>
+      <c r="AJ3" s="36"/>
+      <c r="AK3" s="36"/>
+      <c r="AL3" s="36"/>
+      <c r="AM3" s="36"/>
+      <c r="AN3" s="37"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -7142,17 +7135,17 @@
       <c r="AA80" s="14"/>
       <c r="AB80" s="15"/>
       <c r="AC80" s="17"/>
-      <c r="AD80" s="47" t="s">
+      <c r="AD80" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="AE80" s="44"/>
-      <c r="AF80" s="44"/>
-      <c r="AG80" s="44"/>
-      <c r="AH80" s="44"/>
-      <c r="AI80" s="44"/>
-      <c r="AJ80" s="44"/>
-      <c r="AK80" s="44"/>
-      <c r="AL80" s="44"/>
+      <c r="AE80" s="19"/>
+      <c r="AF80" s="19"/>
+      <c r="AG80" s="19"/>
+      <c r="AH80" s="19"/>
+      <c r="AI80" s="19"/>
+      <c r="AJ80" s="19"/>
+      <c r="AK80" s="19"/>
+      <c r="AL80" s="19"/>
       <c r="AM80" s="5"/>
       <c r="AN80" s="7"/>
     </row>
@@ -7194,17 +7187,17 @@
       <c r="AA81" s="14"/>
       <c r="AB81" s="15"/>
       <c r="AC81" s="17"/>
-      <c r="AD81" s="45" t="s">
+      <c r="AD81" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="AE81" s="46"/>
-      <c r="AF81" s="46"/>
-      <c r="AG81" s="46"/>
-      <c r="AH81" s="46"/>
-      <c r="AI81" s="46"/>
-      <c r="AJ81" s="46"/>
-      <c r="AK81" s="46"/>
-      <c r="AL81" s="46"/>
+      <c r="AE81" s="2"/>
+      <c r="AF81" s="2"/>
+      <c r="AG81" s="2"/>
+      <c r="AH81" s="2"/>
+      <c r="AI81" s="2"/>
+      <c r="AJ81" s="2"/>
+      <c r="AK81" s="2"/>
+      <c r="AL81" s="2"/>
       <c r="AM81" s="7"/>
       <c r="AN81" s="7"/>
     </row>
@@ -7246,17 +7239,17 @@
       <c r="AA82" s="14"/>
       <c r="AB82" s="15"/>
       <c r="AC82" s="17"/>
-      <c r="AD82" s="45" t="s">
+      <c r="AD82" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="AE82" s="46"/>
-      <c r="AF82" s="46"/>
-      <c r="AG82" s="46"/>
-      <c r="AH82" s="46"/>
-      <c r="AI82" s="46"/>
-      <c r="AJ82" s="46"/>
-      <c r="AK82" s="46"/>
-      <c r="AL82" s="46"/>
+      <c r="AE82" s="2"/>
+      <c r="AF82" s="2"/>
+      <c r="AG82" s="2"/>
+      <c r="AH82" s="2"/>
+      <c r="AI82" s="2"/>
+      <c r="AJ82" s="2"/>
+      <c r="AK82" s="2"/>
+      <c r="AL82" s="2"/>
       <c r="AM82" s="7"/>
       <c r="AN82" s="7"/>
     </row>
@@ -7298,17 +7291,17 @@
       <c r="AA83" s="14"/>
       <c r="AB83" s="15"/>
       <c r="AC83" s="17"/>
-      <c r="AD83" s="45" t="s">
+      <c r="AD83" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="AE83" s="46"/>
-      <c r="AF83" s="46"/>
-      <c r="AG83" s="46"/>
-      <c r="AH83" s="46"/>
-      <c r="AI83" s="46"/>
-      <c r="AJ83" s="46"/>
-      <c r="AK83" s="46"/>
-      <c r="AL83" s="46"/>
+      <c r="AE83" s="2"/>
+      <c r="AF83" s="2"/>
+      <c r="AG83" s="2"/>
+      <c r="AH83" s="2"/>
+      <c r="AI83" s="2"/>
+      <c r="AJ83" s="2"/>
+      <c r="AK83" s="2"/>
+      <c r="AL83" s="2"/>
       <c r="AM83" s="7"/>
       <c r="AN83" s="7"/>
     </row>
@@ -7331,7 +7324,7 @@
       <c r="J84" s="15"/>
       <c r="K84" s="17"/>
       <c r="L84" s="14" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="M84" s="15"/>
       <c r="N84" s="17"/>

--- a/doc/外部設計書/外部設計書_F2_fireworks_ストーリー.xlsx
+++ b/doc/外部設計書/外部設計書_F2_fireworks_ストーリー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6FE252D-4BC5-4355-86E9-57E5B0682468}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2206AFA3-72CE-422E-AABC-9CF5E4E03114}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外部設計書" sheetId="1" r:id="rId1"/>
@@ -1015,8 +1015,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="502645" y="1570963"/>
-          <a:ext cx="268427" cy="261465"/>
+          <a:off x="502645" y="1600845"/>
+          <a:ext cx="268427" cy="265201"/>
           <a:chOff x="6582064" y="8647545"/>
           <a:chExt cx="415636" cy="374074"/>
         </a:xfrm>
@@ -1767,8 +1767,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5256078" y="1580036"/>
-          <a:ext cx="268427" cy="261465"/>
+          <a:off x="5256078" y="1609918"/>
+          <a:ext cx="268427" cy="265201"/>
           <a:chOff x="6582064" y="8647545"/>
           <a:chExt cx="415636" cy="374074"/>
         </a:xfrm>
@@ -2757,8 +2757,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="503115" y="7776309"/>
-          <a:ext cx="5959231" cy="2459891"/>
+          <a:off x="503115" y="7925721"/>
+          <a:ext cx="5959231" cy="2508450"/>
           <a:chOff x="561731" y="8044962"/>
           <a:chExt cx="5959231" cy="2212731"/>
         </a:xfrm>
@@ -3130,6 +3130,42 @@
               </a:rPr>
               <a:t>ページ遷移して、背景を暗くする</a:t>
             </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>（</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>モーダルウィンドウ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>）</a:t>
+            </a:r>
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
@@ -3268,7 +3304,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>Google Photos </a:t>
+              <a:t>Google Photos , iphone</a:t>
             </a:r>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
@@ -3280,7 +3316,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>の機能で画像ファイルを読み込む</a:t>
+              <a:t>の様な機能</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
               <a:solidFill>
@@ -3353,17 +3389,6 @@
               </a:rPr>
               <a:t> 縦向きにスライドさせる</a:t>
             </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
             <a:endParaRPr lang="ja-JP" altLang="ja-JP">
               <a:effectLst/>
             </a:endParaRPr>
@@ -3416,6 +3441,42 @@
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
               <a:t>でも可</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>（</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>カルーセルスライダー</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>）</a:t>
             </a:r>
             <a:endParaRPr lang="ja-JP" altLang="ja-JP">
               <a:effectLst/>
@@ -3839,8 +3900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R84" sqref="R84"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L80" sqref="L80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/doc/外部設計書/外部設計書_F2_fireworks_ストーリー.xlsx
+++ b/doc/外部設計書/外部設計書_F2_fireworks_ストーリー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2206AFA3-72CE-422E-AABC-9CF5E4E03114}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8CBAF4-D58F-4E93-AC10-336A848BD15A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -331,7 +331,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -371,6 +371,20 @@
       <charset val="128"/>
     </font>
     <font>
+      <sz val="8"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
       <sz val="8"/>
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
@@ -696,7 +710,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -784,15 +798,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -813,9 +818,6 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -825,8 +827,58 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2806,7 +2858,7 @@
           <a:lstStyle/>
           <a:p>
             <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="900">
                 <a:solidFill>
                   <a:schemeClr val="dk1"/>
                 </a:solidFill>
@@ -2818,7 +2870,7 @@
               <a:t>「１　</a:t>
             </a:r>
             <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
                 <a:solidFill>
                   <a:schemeClr val="dk1"/>
                 </a:solidFill>
@@ -2830,7 +2882,7 @@
               <a:t>ドロワー</a:t>
             </a:r>
             <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="900">
                 <a:solidFill>
                   <a:schemeClr val="dk1"/>
                 </a:solidFill>
@@ -2841,7 +2893,7 @@
               </a:rPr>
               <a:t>メニュー」クリック</a:t>
             </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2853,7 +2905,7 @@
           </a:p>
           <a:p>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
                 <a:solidFill>
                   <a:schemeClr val="dk1"/>
                 </a:solidFill>
@@ -2865,7 +2917,7 @@
               <a:t>	</a:t>
             </a:r>
             <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
                 <a:solidFill>
                   <a:schemeClr val="dk1"/>
                 </a:solidFill>
@@ -2876,13 +2928,13 @@
               </a:rPr>
               <a:t>ドロワーメニュー表示</a:t>
             </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="900">
               <a:effectLst/>
             </a:endParaRPr>
           </a:p>
           <a:p>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
                 <a:solidFill>
                   <a:schemeClr val="dk1"/>
                 </a:solidFill>
@@ -2894,7 +2946,7 @@
               <a:t>				</a:t>
             </a:r>
             <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
                 <a:solidFill>
                   <a:schemeClr val="dk1"/>
                 </a:solidFill>
@@ -2906,7 +2958,7 @@
               <a:t>　　</a:t>
             </a:r>
             <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="dk1"/>
                 </a:solidFill>
@@ -2918,7 +2970,7 @@
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
                 <a:solidFill>
                   <a:schemeClr val="dk1"/>
                 </a:solidFill>
@@ -2929,7 +2981,7 @@
               </a:rPr>
               <a:t>参照</a:t>
             </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2940,13 +2992,13 @@
             </a:endParaRPr>
           </a:p>
           <a:p>
-            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="900">
               <a:effectLst/>
             </a:endParaRPr>
           </a:p>
           <a:p>
             <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="900">
                 <a:solidFill>
                   <a:schemeClr val="dk1"/>
                 </a:solidFill>
@@ -2958,7 +3010,7 @@
               <a:t>「２</a:t>
             </a:r>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
                 <a:solidFill>
                   <a:schemeClr val="dk1"/>
                 </a:solidFill>
@@ -2970,7 +3022,7 @@
               <a:t>, </a:t>
             </a:r>
             <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="900">
                 <a:solidFill>
                   <a:schemeClr val="dk1"/>
                 </a:solidFill>
@@ -2982,7 +3034,7 @@
               <a:t>３</a:t>
             </a:r>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
                 <a:solidFill>
                   <a:schemeClr val="dk1"/>
                 </a:solidFill>
@@ -2994,7 +3046,7 @@
               <a:t>, </a:t>
             </a:r>
             <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="900">
                 <a:solidFill>
                   <a:schemeClr val="dk1"/>
                 </a:solidFill>
@@ -3006,7 +3058,7 @@
               <a:t>４</a:t>
             </a:r>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
                 <a:solidFill>
                   <a:schemeClr val="dk1"/>
                 </a:solidFill>
@@ -3018,7 +3070,7 @@
               <a:t>, </a:t>
             </a:r>
             <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="900">
                 <a:solidFill>
                   <a:schemeClr val="dk1"/>
                 </a:solidFill>
@@ -3029,13 +3081,13 @@
               </a:rPr>
               <a:t>５　アイコン、画像」クリック</a:t>
             </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="900">
               <a:effectLst/>
             </a:endParaRPr>
           </a:p>
           <a:p>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
                 <a:solidFill>
                   <a:schemeClr val="dk1"/>
                 </a:solidFill>
@@ -3047,7 +3099,7 @@
               <a:t>	</a:t>
             </a:r>
             <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="900">
                 <a:solidFill>
                   <a:schemeClr val="dk1"/>
                 </a:solidFill>
@@ -3059,7 +3111,7 @@
               <a:t>全画面</a:t>
             </a:r>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
                 <a:solidFill>
                   <a:schemeClr val="dk1"/>
                 </a:solidFill>
@@ -3071,7 +3123,7 @@
               <a:t>(</a:t>
             </a:r>
             <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="900">
                 <a:solidFill>
                   <a:schemeClr val="dk1"/>
                 </a:solidFill>
@@ -3083,7 +3135,7 @@
               <a:t>拡大</a:t>
             </a:r>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
                 <a:solidFill>
                   <a:schemeClr val="dk1"/>
                 </a:solidFill>
@@ -3095,7 +3147,7 @@
               <a:t>)</a:t>
             </a:r>
             <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" baseline="0">
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="900" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="dk1"/>
                 </a:solidFill>
@@ -3107,7 +3159,7 @@
               <a:t>表示 </a:t>
             </a:r>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="dk1"/>
                 </a:solidFill>
@@ -3119,7 +3171,7 @@
               <a:t>or </a:t>
             </a:r>
             <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" baseline="0">
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="900" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="dk1"/>
                 </a:solidFill>
@@ -3131,7 +3183,7 @@
               <a:t>ページ遷移して、背景を暗くする</a:t>
             </a:r>
             <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="dk1"/>
                 </a:solidFill>
@@ -3143,7 +3195,7 @@
               <a:t>（</a:t>
             </a:r>
             <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="FF0000"/>
                 </a:solidFill>
@@ -3155,7 +3207,7 @@
               <a:t>モーダルウィンドウ</a:t>
             </a:r>
             <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="dk1"/>
                 </a:solidFill>
@@ -3166,7 +3218,7 @@
               </a:rPr>
               <a:t>）</a:t>
             </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3178,7 +3230,7 @@
           </a:p>
           <a:p>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="dk1"/>
                 </a:solidFill>
@@ -3190,7 +3242,7 @@
               <a:t>	</a:t>
             </a:r>
             <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="dk1"/>
                 </a:solidFill>
@@ -3202,7 +3254,7 @@
               <a:t>他</a:t>
             </a:r>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="dk1"/>
                 </a:solidFill>
@@ -3214,7 +3266,7 @@
               <a:t>3</a:t>
             </a:r>
             <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="dk1"/>
                 </a:solidFill>
@@ -3225,7 +3277,7 @@
               </a:rPr>
               <a:t>つのアイコンは非表示</a:t>
             </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3236,13 +3288,13 @@
             </a:endParaRPr>
           </a:p>
           <a:p>
-            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="900">
               <a:effectLst/>
             </a:endParaRPr>
           </a:p>
           <a:p>
             <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="900">
                 <a:solidFill>
                   <a:schemeClr val="dk1"/>
                 </a:solidFill>
@@ -3253,13 +3305,13 @@
               </a:rPr>
               <a:t>「６　スライドショー」</a:t>
             </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="900">
               <a:effectLst/>
             </a:endParaRPr>
           </a:p>
           <a:p>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
                 <a:solidFill>
                   <a:schemeClr val="dk1"/>
                 </a:solidFill>
@@ -3271,7 +3323,7 @@
               <a:t>	</a:t>
             </a:r>
             <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="900">
                 <a:solidFill>
                   <a:schemeClr val="dk1"/>
                 </a:solidFill>
@@ -3283,7 +3335,7 @@
               <a:t>クリックされたアイコンに</a:t>
             </a:r>
             <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
                 <a:solidFill>
                   <a:schemeClr val="dk1"/>
                 </a:solidFill>
@@ -3295,7 +3347,7 @@
               <a:t>応じて、</a:t>
             </a:r>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
                 <a:solidFill>
                   <a:schemeClr val="dk1"/>
                 </a:solidFill>
@@ -3307,7 +3359,7 @@
               <a:t>Google Photos , iphone</a:t>
             </a:r>
             <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
                 <a:solidFill>
                   <a:schemeClr val="dk1"/>
                 </a:solidFill>
@@ -3318,7 +3370,7 @@
               </a:rPr>
               <a:t>の様な機能</a:t>
             </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3330,7 +3382,7 @@
           </a:p>
           <a:p>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
                 <a:solidFill>
                   <a:schemeClr val="dk1"/>
                 </a:solidFill>
@@ -3342,7 +3394,7 @@
               <a:t>	</a:t>
             </a:r>
             <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
                 <a:solidFill>
                   <a:schemeClr val="dk1"/>
                 </a:solidFill>
@@ -3354,7 +3406,7 @@
               <a:t>読み込んだ画像ファイルを一覧で表示し、</a:t>
             </a:r>
             <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="900">
                 <a:solidFill>
                   <a:schemeClr val="dk1"/>
                 </a:solidFill>
@@ -3366,7 +3418,7 @@
               <a:t>横 </a:t>
             </a:r>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
                 <a:solidFill>
                   <a:schemeClr val="dk1"/>
                 </a:solidFill>
@@ -3378,7 +3430,7 @@
               <a:t>or</a:t>
             </a:r>
             <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" baseline="0">
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="900" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="dk1"/>
                 </a:solidFill>
@@ -3389,13 +3441,13 @@
               </a:rPr>
               <a:t> 縦向きにスライドさせる</a:t>
             </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="900">
               <a:effectLst/>
             </a:endParaRPr>
           </a:p>
           <a:p>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="dk1"/>
                 </a:solidFill>
@@ -3407,7 +3459,7 @@
               <a:t>	</a:t>
             </a:r>
             <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" baseline="0">
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="900" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="dk1"/>
                 </a:solidFill>
@@ -3419,7 +3471,7 @@
               <a:t>スライドは自動</a:t>
             </a:r>
             <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="dk1"/>
                 </a:solidFill>
@@ -3431,7 +3483,7 @@
               <a:t>でもフリック</a:t>
             </a:r>
             <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" baseline="0">
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="900" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="dk1"/>
                 </a:solidFill>
@@ -3443,7 +3495,7 @@
               <a:t>でも可</a:t>
             </a:r>
             <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="dk1"/>
                 </a:solidFill>
@@ -3455,7 +3507,7 @@
               <a:t>（</a:t>
             </a:r>
             <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="FF0000"/>
                 </a:solidFill>
@@ -3467,7 +3519,7 @@
               <a:t>カルーセルスライダー</a:t>
             </a:r>
             <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="dk1"/>
                 </a:solidFill>
@@ -3478,12 +3530,12 @@
               </a:rPr>
               <a:t>）</a:t>
             </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="900">
               <a:effectLst/>
             </a:endParaRPr>
           </a:p>
           <a:p>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -3501,7 +3553,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="1523722" y="8418802"/>
+            <a:off x="2338016" y="8319955"/>
             <a:ext cx="2961751" cy="165281"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -3532,7 +3584,7 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
                 <a:solidFill>
                   <a:srgbClr val="00B0F0"/>
                 </a:solidFill>
@@ -3540,7 +3592,7 @@
               <a:t>外部設計書</a:t>
             </a:r>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
                 <a:solidFill>
                   <a:srgbClr val="00B0F0"/>
                 </a:solidFill>
@@ -3548,7 +3600,7 @@
               <a:t>_F2_fireworks_</a:t>
             </a:r>
             <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
                 <a:solidFill>
                   <a:srgbClr val="00B0F0"/>
                 </a:solidFill>
@@ -3556,14 +3608,14 @@
               <a:t>ドロワーメニュー</a:t>
             </a:r>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
                 <a:solidFill>
                   <a:srgbClr val="00B0F0"/>
                 </a:solidFill>
               </a:rPr>
               <a:t>.xlsx</a:t>
             </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -3898,10 +3950,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN109"/>
+  <dimension ref="A1:AO110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L80" sqref="L80"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O69" sqref="O69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3924,11 +3976,11 @@
       <c r="H1" s="23"/>
       <c r="I1" s="23"/>
       <c r="J1" s="24"/>
-      <c r="K1" s="31" t="s">
+      <c r="K1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
       <c r="N1" s="31" t="s">
         <v>24</v>
       </c>
@@ -3940,10 +3992,10 @@
       <c r="T1" s="31"/>
       <c r="U1" s="31"/>
       <c r="V1" s="31"/>
-      <c r="W1" s="31" t="s">
+      <c r="W1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="31"/>
+      <c r="X1" s="42"/>
       <c r="Y1" s="31" t="s">
         <v>21</v>
       </c>
@@ -3953,19 +4005,19 @@
       <c r="AC1" s="31"/>
       <c r="AD1" s="31"/>
       <c r="AE1" s="31"/>
-      <c r="AF1" s="46" t="s">
+      <c r="AF1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="46"/>
-      <c r="AH1" s="38" t="s">
+      <c r="AG1" s="47"/>
+      <c r="AH1" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="AI1" s="38"/>
-      <c r="AJ1" s="38"/>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="38"/>
-      <c r="AM1" s="38"/>
-      <c r="AN1" s="39"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="35"/>
+      <c r="AK1" s="35"/>
+      <c r="AL1" s="35"/>
+      <c r="AM1" s="35"/>
+      <c r="AN1" s="36"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="25"/>
@@ -3978,48 +4030,48 @@
       <c r="H2" s="26"/>
       <c r="I2" s="26"/>
       <c r="J2" s="27"/>
-      <c r="K2" s="40" t="s">
+      <c r="K2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40" t="s">
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40" t="s">
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="41">
+      <c r="X2" s="43"/>
+      <c r="Y2" s="38">
         <v>45083</v>
       </c>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="40"/>
-      <c r="AC2" s="40"/>
-      <c r="AD2" s="40"/>
-      <c r="AE2" s="40"/>
-      <c r="AF2" s="42" t="s">
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="42"/>
-      <c r="AH2" s="43">
+      <c r="AG2" s="48"/>
+      <c r="AH2" s="39">
         <v>45084</v>
       </c>
-      <c r="AI2" s="44"/>
-      <c r="AJ2" s="44"/>
-      <c r="AK2" s="44"/>
-      <c r="AL2" s="44"/>
-      <c r="AM2" s="44"/>
-      <c r="AN2" s="45"/>
+      <c r="AI2" s="40"/>
+      <c r="AJ2" s="40"/>
+      <c r="AK2" s="40"/>
+      <c r="AL2" s="40"/>
+      <c r="AM2" s="40"/>
+      <c r="AN2" s="41"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="28"/>
@@ -4032,38 +4084,38 @@
       <c r="H3" s="29"/>
       <c r="I3" s="29"/>
       <c r="J3" s="30"/>
-      <c r="K3" s="32" t="s">
+      <c r="K3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="33"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="36"/>
-      <c r="X3" s="36"/>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="36"/>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="36"/>
-      <c r="AC3" s="36"/>
-      <c r="AD3" s="36"/>
-      <c r="AE3" s="36"/>
-      <c r="AF3" s="36"/>
-      <c r="AG3" s="36"/>
-      <c r="AH3" s="36"/>
-      <c r="AI3" s="36"/>
-      <c r="AJ3" s="36"/>
-      <c r="AK3" s="36"/>
-      <c r="AL3" s="36"/>
-      <c r="AM3" s="36"/>
-      <c r="AN3" s="37"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33"/>
+      <c r="X3" s="33"/>
+      <c r="Y3" s="33"/>
+      <c r="Z3" s="33"/>
+      <c r="AA3" s="33"/>
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="33"/>
+      <c r="AD3" s="33"/>
+      <c r="AE3" s="33"/>
+      <c r="AF3" s="33"/>
+      <c r="AG3" s="33"/>
+      <c r="AH3" s="33"/>
+      <c r="AI3" s="33"/>
+      <c r="AJ3" s="33"/>
+      <c r="AK3" s="33"/>
+      <c r="AL3" s="33"/>
+      <c r="AM3" s="33"/>
+      <c r="AN3" s="34"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -4112,7 +4164,7 @@
     </row>
     <row r="6" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="49" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="4"/>
@@ -5536,7 +5588,7 @@
     </row>
     <row r="41" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="6"/>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="49" t="s">
         <v>9</v>
       </c>
       <c r="C41" s="4"/>
@@ -6960,7 +7012,7 @@
     </row>
     <row r="76" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="6"/>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="49" t="s">
         <v>10</v>
       </c>
       <c r="C76" s="4"/>
@@ -7046,56 +7098,56 @@
     </row>
     <row r="78" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="6"/>
-      <c r="B78" s="12" t="s">
+      <c r="B78" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C78" s="13"/>
-      <c r="D78" s="14" t="s">
+      <c r="C78" s="51"/>
+      <c r="D78" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="E78" s="15"/>
-      <c r="F78" s="15"/>
-      <c r="G78" s="13"/>
-      <c r="H78" s="14" t="s">
+      <c r="E78" s="53"/>
+      <c r="F78" s="53"/>
+      <c r="G78" s="51"/>
+      <c r="H78" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="I78" s="16"/>
-      <c r="J78" s="15"/>
-      <c r="K78" s="17"/>
-      <c r="L78" s="14" t="s">
+      <c r="I78" s="54"/>
+      <c r="J78" s="53"/>
+      <c r="K78" s="55"/>
+      <c r="L78" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="M78" s="15"/>
-      <c r="N78" s="17"/>
-      <c r="O78" s="14" t="s">
+      <c r="M78" s="53"/>
+      <c r="N78" s="55"/>
+      <c r="O78" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="P78" s="15"/>
-      <c r="Q78" s="15"/>
-      <c r="R78" s="17"/>
-      <c r="S78" s="14" t="s">
+      <c r="P78" s="53"/>
+      <c r="Q78" s="53"/>
+      <c r="R78" s="55"/>
+      <c r="S78" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="T78" s="17"/>
-      <c r="U78" s="14" t="s">
+      <c r="T78" s="55"/>
+      <c r="U78" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="V78" s="17"/>
-      <c r="W78" s="14" t="s">
+      <c r="V78" s="55"/>
+      <c r="W78" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="X78" s="15"/>
-      <c r="Y78" s="15"/>
-      <c r="Z78" s="17"/>
-      <c r="AA78" s="14" t="s">
+      <c r="X78" s="53"/>
+      <c r="Y78" s="53"/>
+      <c r="Z78" s="55"/>
+      <c r="AA78" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="AB78" s="15"/>
-      <c r="AC78" s="17"/>
-      <c r="AD78" s="14" t="s">
+      <c r="AB78" s="53"/>
+      <c r="AC78" s="55"/>
+      <c r="AD78" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="AE78" s="15"/>
+      <c r="AE78" s="53"/>
       <c r="AF78" s="15"/>
       <c r="AG78" s="15"/>
       <c r="AH78" s="15"/>
@@ -7210,7 +7262,7 @@
       <c r="AM80" s="5"/>
       <c r="AN80" s="7"/>
     </row>
-    <row r="81" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="6"/>
       <c r="B81" s="12"/>
       <c r="C81" s="13">
@@ -7262,7 +7314,7 @@
       <c r="AM81" s="7"/>
       <c r="AN81" s="7"/>
     </row>
-    <row r="82" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="6"/>
       <c r="B82" s="12"/>
       <c r="C82" s="13">
@@ -7314,7 +7366,7 @@
       <c r="AM82" s="7"/>
       <c r="AN82" s="7"/>
     </row>
-    <row r="83" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="6"/>
       <c r="B83" s="12"/>
       <c r="C83" s="13">
@@ -7366,1107 +7418,1175 @@
       <c r="AM83" s="7"/>
       <c r="AN83" s="7"/>
     </row>
-    <row r="84" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="6"/>
-      <c r="B84" s="12"/>
-      <c r="C84" s="13">
+    <row r="84" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="7"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="56">
         <v>6</v>
       </c>
-      <c r="D84" s="14" t="s">
+      <c r="D84" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="E84" s="15"/>
-      <c r="F84" s="15"/>
-      <c r="G84" s="13"/>
-      <c r="H84" s="14" t="s">
+      <c r="E84" s="19"/>
+      <c r="F84" s="19"/>
+      <c r="G84" s="56"/>
+      <c r="H84" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="I84" s="16"/>
-      <c r="J84" s="15"/>
-      <c r="K84" s="17"/>
-      <c r="L84" s="14" t="s">
+      <c r="I84" s="58"/>
+      <c r="J84" s="19"/>
+      <c r="K84" s="59"/>
+      <c r="L84" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="M84" s="15"/>
-      <c r="N84" s="17"/>
-      <c r="O84" s="14"/>
-      <c r="P84" s="15"/>
-      <c r="Q84" s="15"/>
-      <c r="R84" s="17"/>
-      <c r="S84" s="14"/>
-      <c r="T84" s="17"/>
-      <c r="U84" s="14"/>
-      <c r="V84" s="17"/>
-      <c r="W84" s="14"/>
-      <c r="X84" s="15"/>
-      <c r="Y84" s="15"/>
-      <c r="Z84" s="17"/>
-      <c r="AA84" s="14"/>
-      <c r="AB84" s="15"/>
-      <c r="AC84" s="17"/>
-      <c r="AD84" s="14" t="s">
+      <c r="M84" s="19"/>
+      <c r="N84" s="59"/>
+      <c r="O84" s="57"/>
+      <c r="P84" s="19"/>
+      <c r="Q84" s="19"/>
+      <c r="R84" s="59"/>
+      <c r="S84" s="57"/>
+      <c r="T84" s="59"/>
+      <c r="U84" s="57"/>
+      <c r="V84" s="59"/>
+      <c r="W84" s="57"/>
+      <c r="X84" s="19"/>
+      <c r="Y84" s="19"/>
+      <c r="Z84" s="59"/>
+      <c r="AA84" s="57"/>
+      <c r="AB84" s="19"/>
+      <c r="AC84" s="59"/>
+      <c r="AD84" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="AE84" s="15"/>
-      <c r="AF84" s="15"/>
-      <c r="AG84" s="15"/>
-      <c r="AH84" s="15"/>
-      <c r="AI84" s="15"/>
-      <c r="AJ84" s="15"/>
-      <c r="AK84" s="15"/>
-      <c r="AL84" s="15"/>
-      <c r="AM84" s="18"/>
+      <c r="AE84" s="19"/>
+      <c r="AF84" s="19"/>
+      <c r="AG84" s="19"/>
+      <c r="AH84" s="19"/>
+      <c r="AI84" s="19"/>
+      <c r="AJ84" s="19"/>
+      <c r="AK84" s="19"/>
+      <c r="AL84" s="19"/>
+      <c r="AM84" s="5"/>
       <c r="AN84" s="7"/>
     </row>
-    <row r="85" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="6"/>
-      <c r="B85" s="12"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="15"/>
-      <c r="F85" s="15"/>
-      <c r="G85" s="13"/>
-      <c r="H85" s="14"/>
-      <c r="I85" s="16"/>
-      <c r="J85" s="15"/>
-      <c r="K85" s="17"/>
-      <c r="L85" s="14"/>
-      <c r="M85" s="15"/>
-      <c r="N85" s="17"/>
-      <c r="O85" s="14"/>
-      <c r="P85" s="15"/>
-      <c r="Q85" s="15"/>
-      <c r="R85" s="17"/>
-      <c r="S85" s="14"/>
-      <c r="T85" s="17"/>
-      <c r="U85" s="14"/>
-      <c r="V85" s="17"/>
-      <c r="W85" s="14"/>
-      <c r="X85" s="15"/>
-      <c r="Y85" s="15"/>
-      <c r="Z85" s="17"/>
-      <c r="AA85" s="14"/>
-      <c r="AB85" s="15"/>
-      <c r="AC85" s="17"/>
-      <c r="AD85" s="14"/>
-      <c r="AE85" s="15"/>
-      <c r="AF85" s="15"/>
-      <c r="AG85" s="15"/>
-      <c r="AH85" s="15"/>
-      <c r="AI85" s="15"/>
-      <c r="AJ85" s="15"/>
-      <c r="AK85" s="15"/>
-      <c r="AL85" s="15"/>
-      <c r="AM85" s="18"/>
-      <c r="AN85" s="7"/>
-    </row>
-    <row r="86" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="6"/>
-      <c r="B86" s="12"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="15"/>
-      <c r="F86" s="15"/>
-      <c r="G86" s="13"/>
-      <c r="H86" s="14"/>
-      <c r="I86" s="16"/>
-      <c r="J86" s="15"/>
-      <c r="K86" s="17"/>
-      <c r="L86" s="14"/>
-      <c r="M86" s="15"/>
-      <c r="N86" s="17"/>
-      <c r="O86" s="14"/>
-      <c r="P86" s="15"/>
-      <c r="Q86" s="15"/>
-      <c r="R86" s="17"/>
-      <c r="S86" s="14"/>
-      <c r="T86" s="17"/>
-      <c r="U86" s="14"/>
-      <c r="V86" s="17"/>
-      <c r="W86" s="14"/>
-      <c r="X86" s="15"/>
-      <c r="Y86" s="15"/>
-      <c r="Z86" s="17"/>
-      <c r="AA86" s="14"/>
-      <c r="AB86" s="15"/>
-      <c r="AC86" s="17"/>
-      <c r="AD86" s="14"/>
-      <c r="AE86" s="15"/>
-      <c r="AF86" s="15"/>
-      <c r="AG86" s="15"/>
-      <c r="AH86" s="15"/>
-      <c r="AI86" s="15"/>
-      <c r="AJ86" s="15"/>
-      <c r="AK86" s="15"/>
-      <c r="AL86" s="15"/>
-      <c r="AM86" s="18"/>
-      <c r="AN86" s="7"/>
-    </row>
-    <row r="87" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="6"/>
-      <c r="B87" s="12"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="15"/>
-      <c r="F87" s="15"/>
-      <c r="G87" s="13"/>
-      <c r="H87" s="14"/>
-      <c r="I87" s="16"/>
-      <c r="J87" s="15"/>
-      <c r="K87" s="17"/>
-      <c r="L87" s="14"/>
-      <c r="M87" s="15"/>
-      <c r="N87" s="17"/>
-      <c r="O87" s="14"/>
-      <c r="P87" s="15"/>
-      <c r="Q87" s="15"/>
-      <c r="R87" s="17"/>
-      <c r="S87" s="14"/>
-      <c r="T87" s="17"/>
-      <c r="U87" s="14"/>
-      <c r="V87" s="17"/>
-      <c r="W87" s="14"/>
-      <c r="X87" s="15"/>
-      <c r="Y87" s="15"/>
-      <c r="Z87" s="17"/>
-      <c r="AA87" s="14"/>
-      <c r="AB87" s="15"/>
-      <c r="AC87" s="17"/>
-      <c r="AD87" s="14"/>
-      <c r="AE87" s="15"/>
-      <c r="AF87" s="15"/>
-      <c r="AG87" s="15"/>
-      <c r="AH87" s="15"/>
-      <c r="AI87" s="15"/>
-      <c r="AJ87" s="15"/>
-      <c r="AK87" s="15"/>
-      <c r="AL87" s="15"/>
-      <c r="AM87" s="18"/>
-      <c r="AN87" s="7"/>
-    </row>
-    <row r="88" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="6"/>
-      <c r="B88" s="12"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="15"/>
-      <c r="F88" s="15"/>
-      <c r="G88" s="13"/>
-      <c r="H88" s="14"/>
-      <c r="I88" s="16"/>
-      <c r="J88" s="15"/>
-      <c r="K88" s="17"/>
-      <c r="L88" s="14"/>
-      <c r="M88" s="15"/>
-      <c r="N88" s="17"/>
-      <c r="O88" s="14"/>
-      <c r="P88" s="15"/>
-      <c r="Q88" s="15"/>
-      <c r="R88" s="17"/>
-      <c r="S88" s="14"/>
-      <c r="T88" s="17"/>
-      <c r="U88" s="14"/>
-      <c r="V88" s="17"/>
-      <c r="W88" s="14"/>
-      <c r="X88" s="15"/>
-      <c r="Y88" s="15"/>
-      <c r="Z88" s="17"/>
-      <c r="AA88" s="14"/>
-      <c r="AB88" s="15"/>
-      <c r="AC88" s="17"/>
-      <c r="AD88" s="14"/>
-      <c r="AE88" s="15"/>
-      <c r="AF88" s="15"/>
-      <c r="AG88" s="15"/>
-      <c r="AH88" s="15"/>
-      <c r="AI88" s="15"/>
-      <c r="AJ88" s="15"/>
-      <c r="AK88" s="15"/>
-      <c r="AL88" s="15"/>
-      <c r="AM88" s="18"/>
-      <c r="AN88" s="7"/>
-    </row>
-    <row r="89" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="6"/>
-      <c r="B89" s="12"/>
-      <c r="C89" s="13"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="15"/>
-      <c r="F89" s="15"/>
-      <c r="G89" s="13"/>
-      <c r="H89" s="14"/>
-      <c r="I89" s="16"/>
-      <c r="J89" s="15"/>
-      <c r="K89" s="17"/>
-      <c r="L89" s="14"/>
-      <c r="M89" s="15"/>
-      <c r="N89" s="17"/>
-      <c r="O89" s="14"/>
-      <c r="P89" s="15"/>
-      <c r="Q89" s="15"/>
-      <c r="R89" s="17"/>
-      <c r="S89" s="14"/>
-      <c r="T89" s="17"/>
-      <c r="U89" s="14"/>
-      <c r="V89" s="17"/>
-      <c r="W89" s="14"/>
-      <c r="X89" s="15"/>
-      <c r="Y89" s="15"/>
-      <c r="Z89" s="17"/>
-      <c r="AA89" s="14"/>
-      <c r="AB89" s="15"/>
-      <c r="AC89" s="17"/>
-      <c r="AD89" s="14"/>
-      <c r="AE89" s="15"/>
-      <c r="AF89" s="15"/>
-      <c r="AG89" s="15"/>
-      <c r="AH89" s="15"/>
-      <c r="AI89" s="15"/>
-      <c r="AJ89" s="15"/>
-      <c r="AK89" s="15"/>
-      <c r="AL89" s="15"/>
-      <c r="AM89" s="18"/>
-      <c r="AN89" s="7"/>
-    </row>
-    <row r="90" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="6"/>
-      <c r="B90" s="12"/>
-      <c r="C90" s="13"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="15"/>
-      <c r="F90" s="15"/>
-      <c r="G90" s="13"/>
-      <c r="H90" s="14"/>
-      <c r="I90" s="16"/>
-      <c r="J90" s="15"/>
-      <c r="K90" s="17"/>
-      <c r="L90" s="14"/>
-      <c r="M90" s="15"/>
-      <c r="N90" s="17"/>
-      <c r="O90" s="14"/>
-      <c r="P90" s="15"/>
-      <c r="Q90" s="15"/>
-      <c r="R90" s="17"/>
-      <c r="S90" s="14"/>
-      <c r="T90" s="17"/>
-      <c r="U90" s="14"/>
-      <c r="V90" s="17"/>
-      <c r="W90" s="14"/>
-      <c r="X90" s="15"/>
-      <c r="Y90" s="15"/>
-      <c r="Z90" s="17"/>
-      <c r="AA90" s="14"/>
-      <c r="AB90" s="15"/>
-      <c r="AC90" s="17"/>
-      <c r="AD90" s="14"/>
-      <c r="AE90" s="15"/>
-      <c r="AF90" s="15"/>
-      <c r="AG90" s="15"/>
-      <c r="AH90" s="15"/>
-      <c r="AI90" s="15"/>
-      <c r="AJ90" s="15"/>
-      <c r="AK90" s="15"/>
-      <c r="AL90" s="15"/>
-      <c r="AM90" s="18"/>
-      <c r="AN90" s="7"/>
-    </row>
-    <row r="91" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="6"/>
-      <c r="B91" s="12"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="15"/>
-      <c r="F91" s="15"/>
-      <c r="G91" s="13"/>
-      <c r="H91" s="14"/>
-      <c r="I91" s="16"/>
-      <c r="J91" s="15"/>
-      <c r="K91" s="17"/>
-      <c r="L91" s="14"/>
-      <c r="M91" s="15"/>
-      <c r="N91" s="17"/>
-      <c r="O91" s="14"/>
-      <c r="P91" s="15"/>
-      <c r="Q91" s="15"/>
-      <c r="R91" s="17"/>
-      <c r="S91" s="14"/>
-      <c r="T91" s="17"/>
-      <c r="U91" s="14"/>
-      <c r="V91" s="17"/>
-      <c r="W91" s="14"/>
-      <c r="X91" s="15"/>
-      <c r="Y91" s="15"/>
-      <c r="Z91" s="17"/>
-      <c r="AA91" s="14"/>
-      <c r="AB91" s="15"/>
-      <c r="AC91" s="17"/>
-      <c r="AD91" s="14"/>
-      <c r="AE91" s="15"/>
-      <c r="AF91" s="15"/>
-      <c r="AG91" s="15"/>
-      <c r="AH91" s="15"/>
-      <c r="AI91" s="15"/>
-      <c r="AJ91" s="15"/>
-      <c r="AK91" s="15"/>
-      <c r="AL91" s="15"/>
-      <c r="AM91" s="18"/>
-      <c r="AN91" s="7"/>
-    </row>
-    <row r="92" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="6"/>
-      <c r="B92" s="12"/>
-      <c r="C92" s="13"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="15"/>
-      <c r="F92" s="15"/>
-      <c r="G92" s="13"/>
-      <c r="H92" s="14"/>
-      <c r="I92" s="16"/>
-      <c r="J92" s="15"/>
-      <c r="K92" s="17"/>
-      <c r="L92" s="14"/>
-      <c r="M92" s="15"/>
-      <c r="N92" s="17"/>
-      <c r="O92" s="14"/>
-      <c r="P92" s="15"/>
-      <c r="Q92" s="15"/>
-      <c r="R92" s="17"/>
-      <c r="S92" s="14"/>
-      <c r="T92" s="17"/>
-      <c r="U92" s="14"/>
-      <c r="V92" s="17"/>
-      <c r="W92" s="14"/>
-      <c r="X92" s="15"/>
-      <c r="Y92" s="15"/>
-      <c r="Z92" s="17"/>
-      <c r="AA92" s="14"/>
-      <c r="AB92" s="15"/>
-      <c r="AC92" s="17"/>
-      <c r="AD92" s="14"/>
-      <c r="AE92" s="15"/>
-      <c r="AF92" s="15"/>
-      <c r="AG92" s="15"/>
-      <c r="AH92" s="15"/>
-      <c r="AI92" s="15"/>
-      <c r="AJ92" s="15"/>
-      <c r="AK92" s="15"/>
-      <c r="AL92" s="15"/>
-      <c r="AM92" s="18"/>
-      <c r="AN92" s="7"/>
-    </row>
-    <row r="93" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="6"/>
-      <c r="B93" s="12"/>
-      <c r="C93" s="13"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="15"/>
-      <c r="F93" s="15"/>
-      <c r="G93" s="13"/>
-      <c r="H93" s="14"/>
-      <c r="I93" s="16"/>
-      <c r="J93" s="15"/>
-      <c r="K93" s="17"/>
-      <c r="L93" s="14"/>
-      <c r="M93" s="15"/>
-      <c r="N93" s="17"/>
-      <c r="O93" s="14"/>
-      <c r="P93" s="15"/>
-      <c r="Q93" s="15"/>
-      <c r="R93" s="17"/>
-      <c r="S93" s="14"/>
-      <c r="T93" s="17"/>
-      <c r="U93" s="14"/>
-      <c r="V93" s="17"/>
-      <c r="W93" s="14"/>
-      <c r="X93" s="15"/>
-      <c r="Y93" s="15"/>
-      <c r="Z93" s="17"/>
-      <c r="AA93" s="14"/>
-      <c r="AB93" s="15"/>
-      <c r="AC93" s="17"/>
-      <c r="AD93" s="14"/>
-      <c r="AE93" s="15"/>
-      <c r="AF93" s="15"/>
-      <c r="AG93" s="15"/>
-      <c r="AH93" s="15"/>
-      <c r="AI93" s="15"/>
-      <c r="AJ93" s="15"/>
-      <c r="AK93" s="15"/>
-      <c r="AL93" s="15"/>
-      <c r="AM93" s="18"/>
-      <c r="AN93" s="7"/>
-    </row>
-    <row r="94" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="6"/>
-      <c r="B94" s="12"/>
-      <c r="C94" s="13"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="15"/>
-      <c r="F94" s="15"/>
-      <c r="G94" s="13"/>
-      <c r="H94" s="14"/>
-      <c r="I94" s="16"/>
-      <c r="J94" s="15"/>
-      <c r="K94" s="17"/>
-      <c r="L94" s="14"/>
-      <c r="M94" s="15"/>
-      <c r="N94" s="17"/>
-      <c r="O94" s="14"/>
-      <c r="P94" s="15"/>
-      <c r="Q94" s="15"/>
-      <c r="R94" s="17"/>
-      <c r="S94" s="14"/>
-      <c r="T94" s="17"/>
-      <c r="U94" s="14"/>
-      <c r="V94" s="17"/>
-      <c r="W94" s="14"/>
-      <c r="X94" s="15"/>
-      <c r="Y94" s="15"/>
-      <c r="Z94" s="17"/>
-      <c r="AA94" s="14"/>
-      <c r="AB94" s="15"/>
-      <c r="AC94" s="17"/>
-      <c r="AD94" s="14"/>
-      <c r="AE94" s="15"/>
-      <c r="AF94" s="15"/>
-      <c r="AG94" s="15"/>
-      <c r="AH94" s="15"/>
-      <c r="AI94" s="15"/>
-      <c r="AJ94" s="15"/>
-      <c r="AK94" s="15"/>
-      <c r="AL94" s="15"/>
-      <c r="AM94" s="18"/>
-      <c r="AN94" s="7"/>
-    </row>
-    <row r="95" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="6"/>
-      <c r="B95" s="12"/>
-      <c r="C95" s="13"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="15"/>
-      <c r="F95" s="15"/>
-      <c r="G95" s="13"/>
-      <c r="H95" s="14"/>
-      <c r="I95" s="16"/>
-      <c r="J95" s="15"/>
-      <c r="K95" s="17"/>
-      <c r="L95" s="14"/>
-      <c r="M95" s="15"/>
-      <c r="N95" s="17"/>
-      <c r="O95" s="14"/>
-      <c r="P95" s="15"/>
-      <c r="Q95" s="15"/>
-      <c r="R95" s="17"/>
-      <c r="S95" s="14"/>
-      <c r="T95" s="17"/>
-      <c r="U95" s="14"/>
-      <c r="V95" s="17"/>
-      <c r="W95" s="14"/>
-      <c r="X95" s="15"/>
-      <c r="Y95" s="15"/>
-      <c r="Z95" s="17"/>
-      <c r="AA95" s="14"/>
-      <c r="AB95" s="15"/>
-      <c r="AC95" s="17"/>
-      <c r="AD95" s="14"/>
-      <c r="AE95" s="15"/>
-      <c r="AF95" s="15"/>
-      <c r="AG95" s="15"/>
-      <c r="AH95" s="15"/>
-      <c r="AI95" s="15"/>
-      <c r="AJ95" s="15"/>
-      <c r="AK95" s="15"/>
-      <c r="AL95" s="15"/>
-      <c r="AM95" s="18"/>
-      <c r="AN95" s="7"/>
-    </row>
-    <row r="96" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="6"/>
-      <c r="B96" s="12"/>
-      <c r="C96" s="13"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="15"/>
-      <c r="F96" s="15"/>
-      <c r="G96" s="13"/>
-      <c r="H96" s="14"/>
-      <c r="I96" s="16"/>
-      <c r="J96" s="15"/>
-      <c r="K96" s="17"/>
-      <c r="L96" s="14"/>
-      <c r="M96" s="15"/>
-      <c r="N96" s="17"/>
-      <c r="O96" s="14"/>
-      <c r="P96" s="15"/>
-      <c r="Q96" s="15"/>
-      <c r="R96" s="17"/>
-      <c r="S96" s="14"/>
-      <c r="T96" s="17"/>
-      <c r="U96" s="14"/>
-      <c r="V96" s="17"/>
-      <c r="W96" s="14"/>
-      <c r="X96" s="15"/>
-      <c r="Y96" s="15"/>
-      <c r="Z96" s="17"/>
-      <c r="AA96" s="14"/>
-      <c r="AB96" s="15"/>
-      <c r="AC96" s="17"/>
-      <c r="AD96" s="14"/>
-      <c r="AE96" s="15"/>
-      <c r="AF96" s="15"/>
-      <c r="AG96" s="15"/>
-      <c r="AH96" s="15"/>
-      <c r="AI96" s="15"/>
-      <c r="AJ96" s="15"/>
-      <c r="AK96" s="15"/>
-      <c r="AL96" s="15"/>
-      <c r="AM96" s="18"/>
-      <c r="AN96" s="7"/>
-    </row>
-    <row r="97" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="6"/>
-      <c r="B97" s="12"/>
-      <c r="C97" s="13"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="15"/>
-      <c r="F97" s="15"/>
-      <c r="G97" s="13"/>
-      <c r="H97" s="14"/>
-      <c r="I97" s="16"/>
-      <c r="J97" s="15"/>
-      <c r="K97" s="17"/>
-      <c r="L97" s="14"/>
-      <c r="M97" s="15"/>
-      <c r="N97" s="17"/>
-      <c r="O97" s="14"/>
-      <c r="P97" s="15"/>
-      <c r="Q97" s="15"/>
-      <c r="R97" s="17"/>
-      <c r="S97" s="14"/>
-      <c r="T97" s="17"/>
-      <c r="U97" s="14"/>
-      <c r="V97" s="17"/>
-      <c r="W97" s="14"/>
-      <c r="X97" s="15"/>
-      <c r="Y97" s="15"/>
-      <c r="Z97" s="17"/>
-      <c r="AA97" s="14"/>
-      <c r="AB97" s="15"/>
-      <c r="AC97" s="17"/>
-      <c r="AD97" s="14"/>
-      <c r="AE97" s="15"/>
-      <c r="AF97" s="15"/>
-      <c r="AG97" s="15"/>
-      <c r="AH97" s="15"/>
-      <c r="AI97" s="15"/>
-      <c r="AJ97" s="15"/>
-      <c r="AK97" s="15"/>
-      <c r="AL97" s="15"/>
-      <c r="AM97" s="18"/>
-      <c r="AN97" s="7"/>
-    </row>
-    <row r="98" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="6"/>
-      <c r="B98" s="12"/>
-      <c r="C98" s="13"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="15"/>
-      <c r="F98" s="15"/>
-      <c r="G98" s="13"/>
-      <c r="H98" s="14"/>
-      <c r="I98" s="16"/>
-      <c r="J98" s="15"/>
-      <c r="K98" s="17"/>
-      <c r="L98" s="14"/>
-      <c r="M98" s="15"/>
-      <c r="N98" s="17"/>
-      <c r="O98" s="14"/>
-      <c r="P98" s="15"/>
-      <c r="Q98" s="15"/>
-      <c r="R98" s="17"/>
-      <c r="S98" s="14"/>
-      <c r="T98" s="17"/>
-      <c r="U98" s="14"/>
-      <c r="V98" s="17"/>
-      <c r="W98" s="14"/>
-      <c r="X98" s="15"/>
-      <c r="Y98" s="15"/>
-      <c r="Z98" s="17"/>
-      <c r="AA98" s="14"/>
-      <c r="AB98" s="15"/>
-      <c r="AC98" s="17"/>
-      <c r="AD98" s="14"/>
-      <c r="AE98" s="15"/>
-      <c r="AF98" s="15"/>
-      <c r="AG98" s="15"/>
-      <c r="AH98" s="15"/>
-      <c r="AI98" s="15"/>
-      <c r="AJ98" s="15"/>
-      <c r="AK98" s="15"/>
-      <c r="AL98" s="15"/>
-      <c r="AM98" s="18"/>
-      <c r="AN98" s="7"/>
-    </row>
-    <row r="99" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="6"/>
-      <c r="B99" s="12"/>
-      <c r="C99" s="13"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="15"/>
-      <c r="F99" s="15"/>
-      <c r="G99" s="13"/>
-      <c r="H99" s="14"/>
-      <c r="I99" s="16"/>
-      <c r="J99" s="15"/>
-      <c r="K99" s="17"/>
-      <c r="L99" s="14"/>
-      <c r="M99" s="15"/>
-      <c r="N99" s="17"/>
-      <c r="O99" s="14"/>
-      <c r="P99" s="15"/>
-      <c r="Q99" s="15"/>
-      <c r="R99" s="17"/>
-      <c r="S99" s="14"/>
-      <c r="T99" s="17"/>
-      <c r="U99" s="14"/>
-      <c r="V99" s="17"/>
-      <c r="W99" s="14"/>
-      <c r="X99" s="15"/>
-      <c r="Y99" s="15"/>
-      <c r="Z99" s="17"/>
-      <c r="AA99" s="14"/>
-      <c r="AB99" s="15"/>
-      <c r="AC99" s="17"/>
-      <c r="AD99" s="14"/>
-      <c r="AE99" s="15"/>
-      <c r="AF99" s="15"/>
-      <c r="AG99" s="15"/>
-      <c r="AH99" s="15"/>
-      <c r="AI99" s="15"/>
-      <c r="AJ99" s="15"/>
-      <c r="AK99" s="15"/>
-      <c r="AL99" s="15"/>
-      <c r="AM99" s="18"/>
-      <c r="AN99" s="7"/>
-    </row>
-    <row r="100" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="6"/>
-      <c r="B100" s="12"/>
-      <c r="C100" s="13"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="15"/>
-      <c r="F100" s="15"/>
-      <c r="G100" s="13"/>
-      <c r="H100" s="14"/>
-      <c r="I100" s="16"/>
-      <c r="J100" s="15"/>
-      <c r="K100" s="17"/>
-      <c r="L100" s="14"/>
-      <c r="M100" s="15"/>
-      <c r="N100" s="17"/>
-      <c r="O100" s="14"/>
-      <c r="P100" s="15"/>
-      <c r="Q100" s="15"/>
-      <c r="R100" s="17"/>
-      <c r="S100" s="14"/>
-      <c r="T100" s="17"/>
-      <c r="U100" s="14"/>
-      <c r="V100" s="17"/>
-      <c r="W100" s="14"/>
-      <c r="X100" s="15"/>
-      <c r="Y100" s="15"/>
-      <c r="Z100" s="17"/>
-      <c r="AA100" s="14"/>
-      <c r="AB100" s="15"/>
-      <c r="AC100" s="17"/>
-      <c r="AD100" s="14"/>
-      <c r="AE100" s="15"/>
-      <c r="AF100" s="15"/>
-      <c r="AG100" s="15"/>
-      <c r="AH100" s="15"/>
-      <c r="AI100" s="15"/>
-      <c r="AJ100" s="15"/>
-      <c r="AK100" s="15"/>
-      <c r="AL100" s="15"/>
-      <c r="AM100" s="18"/>
-      <c r="AN100" s="7"/>
-    </row>
-    <row r="101" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="6"/>
-      <c r="B101" s="12"/>
-      <c r="C101" s="13"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="15"/>
-      <c r="F101" s="15"/>
-      <c r="G101" s="13"/>
-      <c r="H101" s="14"/>
-      <c r="I101" s="16"/>
-      <c r="J101" s="15"/>
-      <c r="K101" s="17"/>
-      <c r="L101" s="14"/>
-      <c r="M101" s="15"/>
-      <c r="N101" s="17"/>
-      <c r="O101" s="14"/>
-      <c r="P101" s="15"/>
-      <c r="Q101" s="15"/>
-      <c r="R101" s="17"/>
-      <c r="S101" s="14"/>
-      <c r="T101" s="17"/>
-      <c r="U101" s="14"/>
-      <c r="V101" s="17"/>
-      <c r="W101" s="14"/>
-      <c r="X101" s="15"/>
-      <c r="Y101" s="15"/>
-      <c r="Z101" s="17"/>
-      <c r="AA101" s="14"/>
-      <c r="AB101" s="15"/>
-      <c r="AC101" s="17"/>
-      <c r="AD101" s="14"/>
-      <c r="AE101" s="15"/>
-      <c r="AF101" s="15"/>
-      <c r="AG101" s="15"/>
-      <c r="AH101" s="15"/>
-      <c r="AI101" s="15"/>
-      <c r="AJ101" s="15"/>
-      <c r="AK101" s="15"/>
-      <c r="AL101" s="15"/>
-      <c r="AM101" s="18"/>
-      <c r="AN101" s="7"/>
-    </row>
-    <row r="102" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="6"/>
-      <c r="B102" s="12"/>
-      <c r="C102" s="13"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="15"/>
-      <c r="F102" s="15"/>
-      <c r="G102" s="13"/>
-      <c r="H102" s="14"/>
-      <c r="I102" s="16"/>
-      <c r="J102" s="15"/>
-      <c r="K102" s="17"/>
-      <c r="L102" s="14"/>
-      <c r="M102" s="15"/>
-      <c r="N102" s="17"/>
-      <c r="O102" s="14"/>
-      <c r="P102" s="15"/>
-      <c r="Q102" s="15"/>
-      <c r="R102" s="17"/>
-      <c r="S102" s="14"/>
-      <c r="T102" s="17"/>
-      <c r="U102" s="14"/>
-      <c r="V102" s="17"/>
-      <c r="W102" s="14"/>
-      <c r="X102" s="15"/>
-      <c r="Y102" s="15"/>
-      <c r="Z102" s="17"/>
-      <c r="AA102" s="14"/>
-      <c r="AB102" s="15"/>
-      <c r="AC102" s="17"/>
-      <c r="AD102" s="14"/>
-      <c r="AE102" s="15"/>
-      <c r="AF102" s="15"/>
-      <c r="AG102" s="15"/>
-      <c r="AH102" s="15"/>
-      <c r="AI102" s="15"/>
-      <c r="AJ102" s="15"/>
-      <c r="AK102" s="15"/>
-      <c r="AL102" s="15"/>
-      <c r="AM102" s="18"/>
-      <c r="AN102" s="7"/>
-    </row>
-    <row r="103" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="6"/>
-      <c r="B103" s="12"/>
-      <c r="C103" s="13"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="15"/>
-      <c r="F103" s="15"/>
-      <c r="G103" s="13"/>
-      <c r="H103" s="14"/>
-      <c r="I103" s="16"/>
-      <c r="J103" s="15"/>
-      <c r="K103" s="17"/>
-      <c r="L103" s="14"/>
-      <c r="M103" s="15"/>
-      <c r="N103" s="17"/>
-      <c r="O103" s="14"/>
-      <c r="P103" s="15"/>
-      <c r="Q103" s="15"/>
-      <c r="R103" s="17"/>
-      <c r="S103" s="14"/>
-      <c r="T103" s="17"/>
-      <c r="U103" s="14"/>
-      <c r="V103" s="17"/>
-      <c r="W103" s="14"/>
-      <c r="X103" s="15"/>
-      <c r="Y103" s="15"/>
-      <c r="Z103" s="17"/>
-      <c r="AA103" s="14"/>
-      <c r="AB103" s="15"/>
-      <c r="AC103" s="17"/>
-      <c r="AD103" s="14"/>
-      <c r="AE103" s="15"/>
-      <c r="AF103" s="15"/>
-      <c r="AG103" s="15"/>
-      <c r="AH103" s="15"/>
-      <c r="AI103" s="15"/>
-      <c r="AJ103" s="15"/>
-      <c r="AK103" s="15"/>
-      <c r="AL103" s="15"/>
-      <c r="AM103" s="18"/>
-      <c r="AN103" s="7"/>
-    </row>
-    <row r="104" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="6"/>
-      <c r="B104" s="12"/>
-      <c r="C104" s="13"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="15"/>
-      <c r="F104" s="15"/>
-      <c r="G104" s="13"/>
-      <c r="H104" s="14"/>
-      <c r="I104" s="16"/>
-      <c r="J104" s="15"/>
-      <c r="K104" s="17"/>
-      <c r="L104" s="14"/>
-      <c r="M104" s="15"/>
-      <c r="N104" s="17"/>
-      <c r="O104" s="14"/>
-      <c r="P104" s="15"/>
-      <c r="Q104" s="15"/>
-      <c r="R104" s="17"/>
-      <c r="S104" s="14"/>
-      <c r="T104" s="17"/>
-      <c r="U104" s="14"/>
-      <c r="V104" s="17"/>
-      <c r="W104" s="14"/>
-      <c r="X104" s="15"/>
-      <c r="Y104" s="15"/>
-      <c r="Z104" s="17"/>
-      <c r="AA104" s="14"/>
-      <c r="AB104" s="15"/>
-      <c r="AC104" s="17"/>
-      <c r="AD104" s="14"/>
-      <c r="AE104" s="15"/>
-      <c r="AF104" s="15"/>
-      <c r="AG104" s="15"/>
-      <c r="AH104" s="15"/>
-      <c r="AI104" s="15"/>
-      <c r="AJ104" s="15"/>
-      <c r="AK104" s="15"/>
-      <c r="AL104" s="15"/>
-      <c r="AM104" s="18"/>
-      <c r="AN104" s="7"/>
-    </row>
-    <row r="105" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="6"/>
-      <c r="B105" s="12"/>
-      <c r="C105" s="13"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="15"/>
-      <c r="F105" s="15"/>
-      <c r="G105" s="13"/>
-      <c r="H105" s="14"/>
-      <c r="I105" s="16"/>
-      <c r="J105" s="15"/>
-      <c r="K105" s="17"/>
-      <c r="L105" s="14"/>
-      <c r="M105" s="15"/>
-      <c r="N105" s="17"/>
-      <c r="O105" s="14"/>
-      <c r="P105" s="15"/>
-      <c r="Q105" s="15"/>
-      <c r="R105" s="17"/>
-      <c r="S105" s="14"/>
-      <c r="T105" s="17"/>
-      <c r="U105" s="14"/>
-      <c r="V105" s="17"/>
-      <c r="W105" s="14"/>
-      <c r="X105" s="15"/>
-      <c r="Y105" s="15"/>
-      <c r="Z105" s="17"/>
-      <c r="AA105" s="14"/>
-      <c r="AB105" s="15"/>
-      <c r="AC105" s="17"/>
-      <c r="AD105" s="14"/>
-      <c r="AE105" s="15"/>
-      <c r="AF105" s="15"/>
-      <c r="AG105" s="15"/>
-      <c r="AH105" s="15"/>
-      <c r="AI105" s="15"/>
-      <c r="AJ105" s="15"/>
-      <c r="AK105" s="15"/>
-      <c r="AL105" s="15"/>
-      <c r="AM105" s="18"/>
-      <c r="AN105" s="7"/>
-    </row>
-    <row r="106" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="6"/>
-      <c r="B106" s="12"/>
-      <c r="C106" s="13"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="15"/>
-      <c r="F106" s="15"/>
-      <c r="G106" s="13"/>
-      <c r="H106" s="14"/>
-      <c r="I106" s="16"/>
-      <c r="J106" s="15"/>
-      <c r="K106" s="17"/>
-      <c r="L106" s="14"/>
-      <c r="M106" s="15"/>
-      <c r="N106" s="17"/>
-      <c r="O106" s="14"/>
-      <c r="P106" s="15"/>
-      <c r="Q106" s="15"/>
-      <c r="R106" s="17"/>
-      <c r="S106" s="14"/>
-      <c r="T106" s="17"/>
-      <c r="U106" s="14"/>
-      <c r="V106" s="17"/>
-      <c r="W106" s="14"/>
-      <c r="X106" s="15"/>
-      <c r="Y106" s="15"/>
-      <c r="Z106" s="17"/>
-      <c r="AA106" s="14"/>
-      <c r="AB106" s="15"/>
-      <c r="AC106" s="17"/>
-      <c r="AD106" s="14"/>
-      <c r="AE106" s="15"/>
-      <c r="AF106" s="15"/>
-      <c r="AG106" s="15"/>
-      <c r="AH106" s="15"/>
-      <c r="AI106" s="15"/>
-      <c r="AJ106" s="15"/>
-      <c r="AK106" s="15"/>
-      <c r="AL106" s="15"/>
-      <c r="AM106" s="18"/>
-      <c r="AN106" s="7"/>
-    </row>
-    <row r="107" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="6"/>
-      <c r="B107" s="12"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="15"/>
-      <c r="F107" s="15"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="14"/>
-      <c r="I107" s="16"/>
-      <c r="J107" s="15"/>
-      <c r="K107" s="17"/>
-      <c r="L107" s="14"/>
-      <c r="M107" s="15"/>
-      <c r="N107" s="17"/>
-      <c r="O107" s="14"/>
-      <c r="P107" s="15"/>
-      <c r="Q107" s="15"/>
-      <c r="R107" s="17"/>
-      <c r="S107" s="14"/>
-      <c r="T107" s="17"/>
-      <c r="U107" s="14"/>
-      <c r="V107" s="17"/>
-      <c r="W107" s="14"/>
-      <c r="X107" s="15"/>
-      <c r="Y107" s="15"/>
-      <c r="Z107" s="17"/>
-      <c r="AA107" s="14"/>
-      <c r="AB107" s="15"/>
-      <c r="AC107" s="17"/>
-      <c r="AD107" s="14"/>
-      <c r="AE107" s="15"/>
-      <c r="AF107" s="15"/>
-      <c r="AG107" s="15"/>
-      <c r="AH107" s="15"/>
-      <c r="AI107" s="15"/>
-      <c r="AJ107" s="15"/>
-      <c r="AK107" s="15"/>
-      <c r="AL107" s="15"/>
-      <c r="AM107" s="18"/>
-      <c r="AN107" s="7"/>
-    </row>
-    <row r="108" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="6"/>
-      <c r="B108" s="12"/>
-      <c r="C108" s="13"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="15"/>
-      <c r="F108" s="15"/>
-      <c r="G108" s="13"/>
-      <c r="H108" s="14"/>
-      <c r="I108" s="16"/>
-      <c r="J108" s="15"/>
-      <c r="K108" s="17"/>
-      <c r="L108" s="14"/>
-      <c r="M108" s="15"/>
-      <c r="N108" s="17"/>
-      <c r="O108" s="14"/>
-      <c r="P108" s="15"/>
-      <c r="Q108" s="15"/>
-      <c r="R108" s="17"/>
-      <c r="S108" s="14"/>
-      <c r="T108" s="17"/>
-      <c r="U108" s="14"/>
-      <c r="V108" s="17"/>
-      <c r="W108" s="14"/>
-      <c r="X108" s="15"/>
-      <c r="Y108" s="15"/>
-      <c r="Z108" s="17"/>
-      <c r="AA108" s="14"/>
-      <c r="AB108" s="15"/>
-      <c r="AC108" s="17"/>
-      <c r="AD108" s="14"/>
-      <c r="AE108" s="15"/>
-      <c r="AF108" s="15"/>
-      <c r="AG108" s="15"/>
-      <c r="AH108" s="15"/>
-      <c r="AI108" s="15"/>
-      <c r="AJ108" s="15"/>
-      <c r="AK108" s="15"/>
-      <c r="AL108" s="15"/>
-      <c r="AM108" s="18"/>
-      <c r="AN108" s="7"/>
-    </row>
-    <row r="109" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="9"/>
-      <c r="B109" s="10"/>
-      <c r="C109" s="10"/>
-      <c r="D109" s="10"/>
-      <c r="E109" s="10"/>
-      <c r="F109" s="10"/>
-      <c r="G109" s="10"/>
-      <c r="H109" s="10"/>
-      <c r="I109" s="10"/>
-      <c r="J109" s="10"/>
-      <c r="K109" s="10"/>
-      <c r="L109" s="10"/>
-      <c r="M109" s="10"/>
-      <c r="N109" s="10"/>
-      <c r="O109" s="10"/>
-      <c r="P109" s="10"/>
-      <c r="Q109" s="10"/>
-      <c r="R109" s="10"/>
-      <c r="S109" s="10"/>
-      <c r="T109" s="10"/>
-      <c r="U109" s="10"/>
-      <c r="V109" s="10"/>
-      <c r="W109" s="10"/>
-      <c r="X109" s="10"/>
-      <c r="Y109" s="10"/>
-      <c r="Z109" s="10"/>
-      <c r="AA109" s="10"/>
-      <c r="AB109" s="10"/>
-      <c r="AC109" s="10"/>
-      <c r="AD109" s="10"/>
-      <c r="AE109" s="10"/>
-      <c r="AF109" s="10"/>
-      <c r="AG109" s="10"/>
-      <c r="AH109" s="10"/>
-      <c r="AI109" s="10"/>
-      <c r="AJ109" s="10"/>
-      <c r="AK109" s="10"/>
-      <c r="AL109" s="10"/>
-      <c r="AM109" s="10"/>
-      <c r="AN109" s="11"/>
+    <row r="85" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="60"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="58"/>
+      <c r="D85" s="19"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="19"/>
+      <c r="G85" s="58"/>
+      <c r="H85" s="19"/>
+      <c r="I85" s="58"/>
+      <c r="J85" s="19"/>
+      <c r="K85" s="19"/>
+      <c r="L85" s="19"/>
+      <c r="M85" s="19"/>
+      <c r="N85" s="19"/>
+      <c r="O85" s="19"/>
+      <c r="P85" s="19"/>
+      <c r="Q85" s="19"/>
+      <c r="R85" s="19"/>
+      <c r="S85" s="19"/>
+      <c r="T85" s="19"/>
+      <c r="U85" s="19"/>
+      <c r="V85" s="19"/>
+      <c r="W85" s="19"/>
+      <c r="X85" s="19"/>
+      <c r="Y85" s="19"/>
+      <c r="Z85" s="19"/>
+      <c r="AA85" s="19"/>
+      <c r="AB85" s="19"/>
+      <c r="AC85" s="19"/>
+      <c r="AD85" s="19"/>
+      <c r="AE85" s="19"/>
+      <c r="AF85" s="19"/>
+      <c r="AG85" s="19"/>
+      <c r="AH85" s="19"/>
+      <c r="AI85" s="19"/>
+      <c r="AJ85" s="19"/>
+      <c r="AK85" s="19"/>
+      <c r="AL85" s="19"/>
+      <c r="AM85" s="4"/>
+      <c r="AN85" s="11"/>
+      <c r="AO85" s="61"/>
+    </row>
+    <row r="86" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="58"/>
+      <c r="D86" s="19"/>
+      <c r="E86" s="19"/>
+      <c r="F86" s="19"/>
+      <c r="G86" s="58"/>
+      <c r="H86" s="19"/>
+      <c r="I86" s="58"/>
+      <c r="J86" s="19"/>
+      <c r="K86" s="19"/>
+      <c r="L86" s="19"/>
+      <c r="M86" s="19"/>
+      <c r="N86" s="19"/>
+      <c r="O86" s="19"/>
+      <c r="P86" s="19"/>
+      <c r="Q86" s="19"/>
+      <c r="R86" s="19"/>
+      <c r="S86" s="19"/>
+      <c r="T86" s="19"/>
+      <c r="U86" s="19"/>
+      <c r="V86" s="19"/>
+      <c r="W86" s="19"/>
+      <c r="X86" s="19"/>
+      <c r="Y86" s="19"/>
+      <c r="Z86" s="19"/>
+      <c r="AA86" s="19"/>
+      <c r="AB86" s="19"/>
+      <c r="AC86" s="19"/>
+      <c r="AD86" s="19"/>
+      <c r="AE86" s="19"/>
+      <c r="AF86" s="19"/>
+      <c r="AG86" s="19"/>
+      <c r="AH86" s="19"/>
+      <c r="AI86" s="19"/>
+      <c r="AJ86" s="19"/>
+      <c r="AK86" s="19"/>
+      <c r="AL86" s="19"/>
+      <c r="AM86" s="4"/>
+      <c r="AN86" s="4"/>
+      <c r="AO86" s="61"/>
+    </row>
+    <row r="87" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="60"/>
+      <c r="B87" s="60"/>
+      <c r="C87" s="61"/>
+      <c r="D87" s="62"/>
+      <c r="E87" s="62"/>
+      <c r="F87" s="62"/>
+      <c r="G87" s="61"/>
+      <c r="H87" s="62"/>
+      <c r="I87" s="61"/>
+      <c r="J87" s="62"/>
+      <c r="K87" s="62"/>
+      <c r="L87" s="62"/>
+      <c r="M87" s="62"/>
+      <c r="N87" s="62"/>
+      <c r="O87" s="62"/>
+      <c r="P87" s="62"/>
+      <c r="Q87" s="62"/>
+      <c r="R87" s="62"/>
+      <c r="S87" s="62"/>
+      <c r="T87" s="62"/>
+      <c r="U87" s="62"/>
+      <c r="V87" s="62"/>
+      <c r="W87" s="62"/>
+      <c r="X87" s="62"/>
+      <c r="Y87" s="62"/>
+      <c r="Z87" s="62"/>
+      <c r="AA87" s="62"/>
+      <c r="AB87" s="62"/>
+      <c r="AC87" s="62"/>
+      <c r="AD87" s="62"/>
+      <c r="AE87" s="62"/>
+      <c r="AF87" s="62"/>
+      <c r="AG87" s="62"/>
+      <c r="AH87" s="62"/>
+      <c r="AI87" s="62"/>
+      <c r="AJ87" s="62"/>
+      <c r="AK87" s="62"/>
+      <c r="AL87" s="62"/>
+      <c r="AM87" s="60"/>
+      <c r="AN87" s="60"/>
+      <c r="AO87" s="61"/>
+    </row>
+    <row r="88" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="60"/>
+      <c r="B88" s="60"/>
+      <c r="C88" s="61"/>
+      <c r="D88" s="62"/>
+      <c r="E88" s="62"/>
+      <c r="F88" s="62"/>
+      <c r="G88" s="61"/>
+      <c r="H88" s="62"/>
+      <c r="I88" s="61"/>
+      <c r="J88" s="62"/>
+      <c r="K88" s="62"/>
+      <c r="L88" s="62"/>
+      <c r="M88" s="62"/>
+      <c r="N88" s="62"/>
+      <c r="O88" s="62"/>
+      <c r="P88" s="62"/>
+      <c r="Q88" s="62"/>
+      <c r="R88" s="62"/>
+      <c r="S88" s="62"/>
+      <c r="T88" s="62"/>
+      <c r="U88" s="62"/>
+      <c r="V88" s="62"/>
+      <c r="W88" s="62"/>
+      <c r="X88" s="62"/>
+      <c r="Y88" s="62"/>
+      <c r="Z88" s="62"/>
+      <c r="AA88" s="62"/>
+      <c r="AB88" s="62"/>
+      <c r="AC88" s="62"/>
+      <c r="AD88" s="62"/>
+      <c r="AE88" s="62"/>
+      <c r="AF88" s="62"/>
+      <c r="AG88" s="62"/>
+      <c r="AH88" s="62"/>
+      <c r="AI88" s="62"/>
+      <c r="AJ88" s="62"/>
+      <c r="AK88" s="62"/>
+      <c r="AL88" s="62"/>
+      <c r="AM88" s="60"/>
+      <c r="AN88" s="60"/>
+      <c r="AO88" s="61"/>
+    </row>
+    <row r="89" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="60"/>
+      <c r="B89" s="60"/>
+      <c r="C89" s="61"/>
+      <c r="D89" s="62"/>
+      <c r="E89" s="62"/>
+      <c r="F89" s="62"/>
+      <c r="G89" s="61"/>
+      <c r="H89" s="62"/>
+      <c r="I89" s="61"/>
+      <c r="J89" s="62"/>
+      <c r="K89" s="62"/>
+      <c r="L89" s="62"/>
+      <c r="M89" s="62"/>
+      <c r="N89" s="62"/>
+      <c r="O89" s="62"/>
+      <c r="P89" s="62"/>
+      <c r="Q89" s="62"/>
+      <c r="R89" s="62"/>
+      <c r="S89" s="62"/>
+      <c r="T89" s="62"/>
+      <c r="U89" s="62"/>
+      <c r="V89" s="62"/>
+      <c r="W89" s="62"/>
+      <c r="X89" s="62"/>
+      <c r="Y89" s="62"/>
+      <c r="Z89" s="62"/>
+      <c r="AA89" s="62"/>
+      <c r="AB89" s="62"/>
+      <c r="AC89" s="62"/>
+      <c r="AD89" s="62"/>
+      <c r="AE89" s="62"/>
+      <c r="AF89" s="62"/>
+      <c r="AG89" s="62"/>
+      <c r="AH89" s="62"/>
+      <c r="AI89" s="62"/>
+      <c r="AJ89" s="62"/>
+      <c r="AK89" s="62"/>
+      <c r="AL89" s="62"/>
+      <c r="AM89" s="60"/>
+      <c r="AN89" s="60"/>
+      <c r="AO89" s="61"/>
+    </row>
+    <row r="90" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="60"/>
+      <c r="B90" s="60"/>
+      <c r="C90" s="61"/>
+      <c r="D90" s="62"/>
+      <c r="E90" s="62"/>
+      <c r="F90" s="62"/>
+      <c r="G90" s="61"/>
+      <c r="H90" s="62"/>
+      <c r="I90" s="61"/>
+      <c r="J90" s="62"/>
+      <c r="K90" s="62"/>
+      <c r="L90" s="62"/>
+      <c r="M90" s="62"/>
+      <c r="N90" s="62"/>
+      <c r="O90" s="62"/>
+      <c r="P90" s="62"/>
+      <c r="Q90" s="62"/>
+      <c r="R90" s="62"/>
+      <c r="S90" s="62"/>
+      <c r="T90" s="62"/>
+      <c r="U90" s="62"/>
+      <c r="V90" s="62"/>
+      <c r="W90" s="62"/>
+      <c r="X90" s="62"/>
+      <c r="Y90" s="62"/>
+      <c r="Z90" s="62"/>
+      <c r="AA90" s="62"/>
+      <c r="AB90" s="62"/>
+      <c r="AC90" s="62"/>
+      <c r="AD90" s="62"/>
+      <c r="AE90" s="62"/>
+      <c r="AF90" s="62"/>
+      <c r="AG90" s="62"/>
+      <c r="AH90" s="62"/>
+      <c r="AI90" s="62"/>
+      <c r="AJ90" s="62"/>
+      <c r="AK90" s="62"/>
+      <c r="AL90" s="62"/>
+      <c r="AM90" s="60"/>
+      <c r="AN90" s="60"/>
+      <c r="AO90" s="61"/>
+    </row>
+    <row r="91" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="60"/>
+      <c r="B91" s="60"/>
+      <c r="C91" s="61"/>
+      <c r="D91" s="62"/>
+      <c r="E91" s="62"/>
+      <c r="F91" s="62"/>
+      <c r="G91" s="61"/>
+      <c r="H91" s="62"/>
+      <c r="I91" s="61"/>
+      <c r="J91" s="62"/>
+      <c r="K91" s="62"/>
+      <c r="L91" s="62"/>
+      <c r="M91" s="62"/>
+      <c r="N91" s="62"/>
+      <c r="O91" s="62"/>
+      <c r="P91" s="62"/>
+      <c r="Q91" s="62"/>
+      <c r="R91" s="62"/>
+      <c r="S91" s="62"/>
+      <c r="T91" s="62"/>
+      <c r="U91" s="62"/>
+      <c r="V91" s="62"/>
+      <c r="W91" s="62"/>
+      <c r="X91" s="62"/>
+      <c r="Y91" s="62"/>
+      <c r="Z91" s="62"/>
+      <c r="AA91" s="62"/>
+      <c r="AB91" s="62"/>
+      <c r="AC91" s="62"/>
+      <c r="AD91" s="62"/>
+      <c r="AE91" s="62"/>
+      <c r="AF91" s="62"/>
+      <c r="AG91" s="62"/>
+      <c r="AH91" s="62"/>
+      <c r="AI91" s="62"/>
+      <c r="AJ91" s="62"/>
+      <c r="AK91" s="62"/>
+      <c r="AL91" s="62"/>
+      <c r="AM91" s="60"/>
+      <c r="AN91" s="60"/>
+      <c r="AO91" s="61"/>
+    </row>
+    <row r="92" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="60"/>
+      <c r="B92" s="60"/>
+      <c r="C92" s="61"/>
+      <c r="D92" s="62"/>
+      <c r="E92" s="62"/>
+      <c r="F92" s="62"/>
+      <c r="G92" s="61"/>
+      <c r="H92" s="62"/>
+      <c r="I92" s="61"/>
+      <c r="J92" s="62"/>
+      <c r="K92" s="62"/>
+      <c r="L92" s="62"/>
+      <c r="M92" s="62"/>
+      <c r="N92" s="62"/>
+      <c r="O92" s="62"/>
+      <c r="P92" s="62"/>
+      <c r="Q92" s="62"/>
+      <c r="R92" s="62"/>
+      <c r="S92" s="62"/>
+      <c r="T92" s="62"/>
+      <c r="U92" s="62"/>
+      <c r="V92" s="62"/>
+      <c r="W92" s="62"/>
+      <c r="X92" s="62"/>
+      <c r="Y92" s="62"/>
+      <c r="Z92" s="62"/>
+      <c r="AA92" s="62"/>
+      <c r="AB92" s="62"/>
+      <c r="AC92" s="62"/>
+      <c r="AD92" s="62"/>
+      <c r="AE92" s="62"/>
+      <c r="AF92" s="62"/>
+      <c r="AG92" s="62"/>
+      <c r="AH92" s="62"/>
+      <c r="AI92" s="62"/>
+      <c r="AJ92" s="62"/>
+      <c r="AK92" s="62"/>
+      <c r="AL92" s="62"/>
+      <c r="AM92" s="60"/>
+      <c r="AN92" s="60"/>
+      <c r="AO92" s="61"/>
+    </row>
+    <row r="93" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="60"/>
+      <c r="B93" s="60"/>
+      <c r="C93" s="61"/>
+      <c r="D93" s="62"/>
+      <c r="E93" s="62"/>
+      <c r="F93" s="62"/>
+      <c r="G93" s="61"/>
+      <c r="H93" s="62"/>
+      <c r="I93" s="61"/>
+      <c r="J93" s="62"/>
+      <c r="K93" s="62"/>
+      <c r="L93" s="62"/>
+      <c r="M93" s="62"/>
+      <c r="N93" s="62"/>
+      <c r="O93" s="62"/>
+      <c r="P93" s="62"/>
+      <c r="Q93" s="62"/>
+      <c r="R93" s="62"/>
+      <c r="S93" s="62"/>
+      <c r="T93" s="62"/>
+      <c r="U93" s="62"/>
+      <c r="V93" s="62"/>
+      <c r="W93" s="62"/>
+      <c r="X93" s="62"/>
+      <c r="Y93" s="62"/>
+      <c r="Z93" s="62"/>
+      <c r="AA93" s="62"/>
+      <c r="AB93" s="62"/>
+      <c r="AC93" s="62"/>
+      <c r="AD93" s="62"/>
+      <c r="AE93" s="62"/>
+      <c r="AF93" s="62"/>
+      <c r="AG93" s="62"/>
+      <c r="AH93" s="62"/>
+      <c r="AI93" s="62"/>
+      <c r="AJ93" s="62"/>
+      <c r="AK93" s="62"/>
+      <c r="AL93" s="62"/>
+      <c r="AM93" s="60"/>
+      <c r="AN93" s="60"/>
+      <c r="AO93" s="61"/>
+    </row>
+    <row r="94" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="60"/>
+      <c r="B94" s="60"/>
+      <c r="C94" s="61"/>
+      <c r="D94" s="62"/>
+      <c r="E94" s="62"/>
+      <c r="F94" s="62"/>
+      <c r="G94" s="61"/>
+      <c r="H94" s="62"/>
+      <c r="I94" s="61"/>
+      <c r="J94" s="62"/>
+      <c r="K94" s="62"/>
+      <c r="L94" s="62"/>
+      <c r="M94" s="62"/>
+      <c r="N94" s="62"/>
+      <c r="O94" s="62"/>
+      <c r="P94" s="62"/>
+      <c r="Q94" s="62"/>
+      <c r="R94" s="62"/>
+      <c r="S94" s="62"/>
+      <c r="T94" s="62"/>
+      <c r="U94" s="62"/>
+      <c r="V94" s="62"/>
+      <c r="W94" s="62"/>
+      <c r="X94" s="62"/>
+      <c r="Y94" s="62"/>
+      <c r="Z94" s="62"/>
+      <c r="AA94" s="62"/>
+      <c r="AB94" s="62"/>
+      <c r="AC94" s="62"/>
+      <c r="AD94" s="62"/>
+      <c r="AE94" s="62"/>
+      <c r="AF94" s="62"/>
+      <c r="AG94" s="62"/>
+      <c r="AH94" s="62"/>
+      <c r="AI94" s="62"/>
+      <c r="AJ94" s="62"/>
+      <c r="AK94" s="62"/>
+      <c r="AL94" s="62"/>
+      <c r="AM94" s="60"/>
+      <c r="AN94" s="60"/>
+      <c r="AO94" s="61"/>
+    </row>
+    <row r="95" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="60"/>
+      <c r="B95" s="60"/>
+      <c r="C95" s="61"/>
+      <c r="D95" s="62"/>
+      <c r="E95" s="62"/>
+      <c r="F95" s="62"/>
+      <c r="G95" s="61"/>
+      <c r="H95" s="62"/>
+      <c r="I95" s="61"/>
+      <c r="J95" s="62"/>
+      <c r="K95" s="62"/>
+      <c r="L95" s="62"/>
+      <c r="M95" s="62"/>
+      <c r="N95" s="62"/>
+      <c r="O95" s="62"/>
+      <c r="P95" s="62"/>
+      <c r="Q95" s="62"/>
+      <c r="R95" s="62"/>
+      <c r="S95" s="62"/>
+      <c r="T95" s="62"/>
+      <c r="U95" s="62"/>
+      <c r="V95" s="62"/>
+      <c r="W95" s="62"/>
+      <c r="X95" s="62"/>
+      <c r="Y95" s="62"/>
+      <c r="Z95" s="62"/>
+      <c r="AA95" s="62"/>
+      <c r="AB95" s="62"/>
+      <c r="AC95" s="62"/>
+      <c r="AD95" s="62"/>
+      <c r="AE95" s="62"/>
+      <c r="AF95" s="62"/>
+      <c r="AG95" s="62"/>
+      <c r="AH95" s="62"/>
+      <c r="AI95" s="62"/>
+      <c r="AJ95" s="62"/>
+      <c r="AK95" s="62"/>
+      <c r="AL95" s="62"/>
+      <c r="AM95" s="60"/>
+      <c r="AN95" s="60"/>
+      <c r="AO95" s="61"/>
+    </row>
+    <row r="96" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="60"/>
+      <c r="B96" s="60"/>
+      <c r="C96" s="61"/>
+      <c r="D96" s="62"/>
+      <c r="E96" s="62"/>
+      <c r="F96" s="62"/>
+      <c r="G96" s="61"/>
+      <c r="H96" s="62"/>
+      <c r="I96" s="61"/>
+      <c r="J96" s="62"/>
+      <c r="K96" s="62"/>
+      <c r="L96" s="62"/>
+      <c r="M96" s="62"/>
+      <c r="N96" s="62"/>
+      <c r="O96" s="62"/>
+      <c r="P96" s="62"/>
+      <c r="Q96" s="62"/>
+      <c r="R96" s="62"/>
+      <c r="S96" s="62"/>
+      <c r="T96" s="62"/>
+      <c r="U96" s="62"/>
+      <c r="V96" s="62"/>
+      <c r="W96" s="62"/>
+      <c r="X96" s="62"/>
+      <c r="Y96" s="62"/>
+      <c r="Z96" s="62"/>
+      <c r="AA96" s="62"/>
+      <c r="AB96" s="62"/>
+      <c r="AC96" s="62"/>
+      <c r="AD96" s="62"/>
+      <c r="AE96" s="62"/>
+      <c r="AF96" s="62"/>
+      <c r="AG96" s="62"/>
+      <c r="AH96" s="62"/>
+      <c r="AI96" s="62"/>
+      <c r="AJ96" s="62"/>
+      <c r="AK96" s="62"/>
+      <c r="AL96" s="62"/>
+      <c r="AM96" s="60"/>
+      <c r="AN96" s="60"/>
+      <c r="AO96" s="61"/>
+    </row>
+    <row r="97" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="60"/>
+      <c r="B97" s="60"/>
+      <c r="C97" s="61"/>
+      <c r="D97" s="62"/>
+      <c r="E97" s="62"/>
+      <c r="F97" s="62"/>
+      <c r="G97" s="61"/>
+      <c r="H97" s="62"/>
+      <c r="I97" s="61"/>
+      <c r="J97" s="62"/>
+      <c r="K97" s="62"/>
+      <c r="L97" s="62"/>
+      <c r="M97" s="62"/>
+      <c r="N97" s="62"/>
+      <c r="O97" s="62"/>
+      <c r="P97" s="62"/>
+      <c r="Q97" s="62"/>
+      <c r="R97" s="62"/>
+      <c r="S97" s="62"/>
+      <c r="T97" s="62"/>
+      <c r="U97" s="62"/>
+      <c r="V97" s="62"/>
+      <c r="W97" s="62"/>
+      <c r="X97" s="62"/>
+      <c r="Y97" s="62"/>
+      <c r="Z97" s="62"/>
+      <c r="AA97" s="62"/>
+      <c r="AB97" s="62"/>
+      <c r="AC97" s="62"/>
+      <c r="AD97" s="62"/>
+      <c r="AE97" s="62"/>
+      <c r="AF97" s="62"/>
+      <c r="AG97" s="62"/>
+      <c r="AH97" s="62"/>
+      <c r="AI97" s="62"/>
+      <c r="AJ97" s="62"/>
+      <c r="AK97" s="62"/>
+      <c r="AL97" s="62"/>
+      <c r="AM97" s="60"/>
+      <c r="AN97" s="60"/>
+      <c r="AO97" s="61"/>
+    </row>
+    <row r="98" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="60"/>
+      <c r="B98" s="60"/>
+      <c r="C98" s="61"/>
+      <c r="D98" s="62"/>
+      <c r="E98" s="62"/>
+      <c r="F98" s="62"/>
+      <c r="G98" s="61"/>
+      <c r="H98" s="62"/>
+      <c r="I98" s="61"/>
+      <c r="J98" s="62"/>
+      <c r="K98" s="62"/>
+      <c r="L98" s="62"/>
+      <c r="M98" s="62"/>
+      <c r="N98" s="62"/>
+      <c r="O98" s="62"/>
+      <c r="P98" s="62"/>
+      <c r="Q98" s="62"/>
+      <c r="R98" s="62"/>
+      <c r="S98" s="62"/>
+      <c r="T98" s="62"/>
+      <c r="U98" s="62"/>
+      <c r="V98" s="62"/>
+      <c r="W98" s="62"/>
+      <c r="X98" s="62"/>
+      <c r="Y98" s="62"/>
+      <c r="Z98" s="62"/>
+      <c r="AA98" s="62"/>
+      <c r="AB98" s="62"/>
+      <c r="AC98" s="62"/>
+      <c r="AD98" s="62"/>
+      <c r="AE98" s="62"/>
+      <c r="AF98" s="62"/>
+      <c r="AG98" s="62"/>
+      <c r="AH98" s="62"/>
+      <c r="AI98" s="62"/>
+      <c r="AJ98" s="62"/>
+      <c r="AK98" s="62"/>
+      <c r="AL98" s="62"/>
+      <c r="AM98" s="60"/>
+      <c r="AN98" s="60"/>
+      <c r="AO98" s="61"/>
+    </row>
+    <row r="99" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="60"/>
+      <c r="B99" s="60"/>
+      <c r="C99" s="61"/>
+      <c r="D99" s="62"/>
+      <c r="E99" s="62"/>
+      <c r="F99" s="62"/>
+      <c r="G99" s="61"/>
+      <c r="H99" s="62"/>
+      <c r="I99" s="61"/>
+      <c r="J99" s="62"/>
+      <c r="K99" s="62"/>
+      <c r="L99" s="62"/>
+      <c r="M99" s="62"/>
+      <c r="N99" s="62"/>
+      <c r="O99" s="62"/>
+      <c r="P99" s="62"/>
+      <c r="Q99" s="62"/>
+      <c r="R99" s="62"/>
+      <c r="S99" s="62"/>
+      <c r="T99" s="62"/>
+      <c r="U99" s="62"/>
+      <c r="V99" s="62"/>
+      <c r="W99" s="62"/>
+      <c r="X99" s="62"/>
+      <c r="Y99" s="62"/>
+      <c r="Z99" s="62"/>
+      <c r="AA99" s="62"/>
+      <c r="AB99" s="62"/>
+      <c r="AC99" s="62"/>
+      <c r="AD99" s="62"/>
+      <c r="AE99" s="62"/>
+      <c r="AF99" s="62"/>
+      <c r="AG99" s="62"/>
+      <c r="AH99" s="62"/>
+      <c r="AI99" s="62"/>
+      <c r="AJ99" s="62"/>
+      <c r="AK99" s="62"/>
+      <c r="AL99" s="62"/>
+      <c r="AM99" s="60"/>
+      <c r="AN99" s="60"/>
+      <c r="AO99" s="61"/>
+    </row>
+    <row r="100" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="60"/>
+      <c r="B100" s="60"/>
+      <c r="C100" s="61"/>
+      <c r="D100" s="62"/>
+      <c r="E100" s="62"/>
+      <c r="F100" s="62"/>
+      <c r="G100" s="61"/>
+      <c r="H100" s="62"/>
+      <c r="I100" s="61"/>
+      <c r="J100" s="62"/>
+      <c r="K100" s="62"/>
+      <c r="L100" s="62"/>
+      <c r="M100" s="62"/>
+      <c r="N100" s="62"/>
+      <c r="O100" s="62"/>
+      <c r="P100" s="62"/>
+      <c r="Q100" s="62"/>
+      <c r="R100" s="62"/>
+      <c r="S100" s="62"/>
+      <c r="T100" s="62"/>
+      <c r="U100" s="62"/>
+      <c r="V100" s="62"/>
+      <c r="W100" s="62"/>
+      <c r="X100" s="62"/>
+      <c r="Y100" s="62"/>
+      <c r="Z100" s="62"/>
+      <c r="AA100" s="62"/>
+      <c r="AB100" s="62"/>
+      <c r="AC100" s="62"/>
+      <c r="AD100" s="62"/>
+      <c r="AE100" s="62"/>
+      <c r="AF100" s="62"/>
+      <c r="AG100" s="62"/>
+      <c r="AH100" s="62"/>
+      <c r="AI100" s="62"/>
+      <c r="AJ100" s="62"/>
+      <c r="AK100" s="62"/>
+      <c r="AL100" s="62"/>
+      <c r="AM100" s="60"/>
+      <c r="AN100" s="60"/>
+      <c r="AO100" s="61"/>
+    </row>
+    <row r="101" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="60"/>
+      <c r="B101" s="60"/>
+      <c r="C101" s="61"/>
+      <c r="D101" s="62"/>
+      <c r="E101" s="62"/>
+      <c r="F101" s="62"/>
+      <c r="G101" s="61"/>
+      <c r="H101" s="62"/>
+      <c r="I101" s="61"/>
+      <c r="J101" s="62"/>
+      <c r="K101" s="62"/>
+      <c r="L101" s="62"/>
+      <c r="M101" s="62"/>
+      <c r="N101" s="62"/>
+      <c r="O101" s="62"/>
+      <c r="P101" s="62"/>
+      <c r="Q101" s="62"/>
+      <c r="R101" s="62"/>
+      <c r="S101" s="62"/>
+      <c r="T101" s="62"/>
+      <c r="U101" s="62"/>
+      <c r="V101" s="62"/>
+      <c r="W101" s="62"/>
+      <c r="X101" s="62"/>
+      <c r="Y101" s="62"/>
+      <c r="Z101" s="62"/>
+      <c r="AA101" s="62"/>
+      <c r="AB101" s="62"/>
+      <c r="AC101" s="62"/>
+      <c r="AD101" s="62"/>
+      <c r="AE101" s="62"/>
+      <c r="AF101" s="62"/>
+      <c r="AG101" s="62"/>
+      <c r="AH101" s="62"/>
+      <c r="AI101" s="62"/>
+      <c r="AJ101" s="62"/>
+      <c r="AK101" s="62"/>
+      <c r="AL101" s="62"/>
+      <c r="AM101" s="60"/>
+      <c r="AN101" s="60"/>
+      <c r="AO101" s="61"/>
+    </row>
+    <row r="102" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="60"/>
+      <c r="B102" s="60"/>
+      <c r="C102" s="61"/>
+      <c r="D102" s="62"/>
+      <c r="E102" s="62"/>
+      <c r="F102" s="62"/>
+      <c r="G102" s="61"/>
+      <c r="H102" s="62"/>
+      <c r="I102" s="61"/>
+      <c r="J102" s="62"/>
+      <c r="K102" s="62"/>
+      <c r="L102" s="62"/>
+      <c r="M102" s="62"/>
+      <c r="N102" s="62"/>
+      <c r="O102" s="62"/>
+      <c r="P102" s="62"/>
+      <c r="Q102" s="62"/>
+      <c r="R102" s="62"/>
+      <c r="S102" s="62"/>
+      <c r="T102" s="62"/>
+      <c r="U102" s="62"/>
+      <c r="V102" s="62"/>
+      <c r="W102" s="62"/>
+      <c r="X102" s="62"/>
+      <c r="Y102" s="62"/>
+      <c r="Z102" s="62"/>
+      <c r="AA102" s="62"/>
+      <c r="AB102" s="62"/>
+      <c r="AC102" s="62"/>
+      <c r="AD102" s="62"/>
+      <c r="AE102" s="62"/>
+      <c r="AF102" s="62"/>
+      <c r="AG102" s="62"/>
+      <c r="AH102" s="62"/>
+      <c r="AI102" s="62"/>
+      <c r="AJ102" s="62"/>
+      <c r="AK102" s="62"/>
+      <c r="AL102" s="62"/>
+      <c r="AM102" s="60"/>
+      <c r="AN102" s="60"/>
+      <c r="AO102" s="61"/>
+    </row>
+    <row r="103" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="60"/>
+      <c r="B103" s="60"/>
+      <c r="C103" s="61"/>
+      <c r="D103" s="62"/>
+      <c r="E103" s="62"/>
+      <c r="F103" s="62"/>
+      <c r="G103" s="61"/>
+      <c r="H103" s="62"/>
+      <c r="I103" s="61"/>
+      <c r="J103" s="62"/>
+      <c r="K103" s="62"/>
+      <c r="L103" s="62"/>
+      <c r="M103" s="62"/>
+      <c r="N103" s="62"/>
+      <c r="O103" s="62"/>
+      <c r="P103" s="62"/>
+      <c r="Q103" s="62"/>
+      <c r="R103" s="62"/>
+      <c r="S103" s="62"/>
+      <c r="T103" s="62"/>
+      <c r="U103" s="62"/>
+      <c r="V103" s="62"/>
+      <c r="W103" s="62"/>
+      <c r="X103" s="62"/>
+      <c r="Y103" s="62"/>
+      <c r="Z103" s="62"/>
+      <c r="AA103" s="62"/>
+      <c r="AB103" s="62"/>
+      <c r="AC103" s="62"/>
+      <c r="AD103" s="62"/>
+      <c r="AE103" s="62"/>
+      <c r="AF103" s="62"/>
+      <c r="AG103" s="62"/>
+      <c r="AH103" s="62"/>
+      <c r="AI103" s="62"/>
+      <c r="AJ103" s="62"/>
+      <c r="AK103" s="62"/>
+      <c r="AL103" s="62"/>
+      <c r="AM103" s="60"/>
+      <c r="AN103" s="60"/>
+      <c r="AO103" s="61"/>
+    </row>
+    <row r="104" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="60"/>
+      <c r="B104" s="60"/>
+      <c r="C104" s="61"/>
+      <c r="D104" s="62"/>
+      <c r="E104" s="62"/>
+      <c r="F104" s="62"/>
+      <c r="G104" s="61"/>
+      <c r="H104" s="62"/>
+      <c r="I104" s="61"/>
+      <c r="J104" s="62"/>
+      <c r="K104" s="62"/>
+      <c r="L104" s="62"/>
+      <c r="M104" s="62"/>
+      <c r="N104" s="62"/>
+      <c r="O104" s="62"/>
+      <c r="P104" s="62"/>
+      <c r="Q104" s="62"/>
+      <c r="R104" s="62"/>
+      <c r="S104" s="62"/>
+      <c r="T104" s="62"/>
+      <c r="U104" s="62"/>
+      <c r="V104" s="62"/>
+      <c r="W104" s="62"/>
+      <c r="X104" s="62"/>
+      <c r="Y104" s="62"/>
+      <c r="Z104" s="62"/>
+      <c r="AA104" s="62"/>
+      <c r="AB104" s="62"/>
+      <c r="AC104" s="62"/>
+      <c r="AD104" s="62"/>
+      <c r="AE104" s="62"/>
+      <c r="AF104" s="62"/>
+      <c r="AG104" s="62"/>
+      <c r="AH104" s="62"/>
+      <c r="AI104" s="62"/>
+      <c r="AJ104" s="62"/>
+      <c r="AK104" s="62"/>
+      <c r="AL104" s="62"/>
+      <c r="AM104" s="60"/>
+      <c r="AN104" s="60"/>
+      <c r="AO104" s="61"/>
+    </row>
+    <row r="105" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="60"/>
+      <c r="B105" s="60"/>
+      <c r="C105" s="61"/>
+      <c r="D105" s="62"/>
+      <c r="E105" s="62"/>
+      <c r="F105" s="62"/>
+      <c r="G105" s="61"/>
+      <c r="H105" s="62"/>
+      <c r="I105" s="61"/>
+      <c r="J105" s="62"/>
+      <c r="K105" s="62"/>
+      <c r="L105" s="62"/>
+      <c r="M105" s="62"/>
+      <c r="N105" s="62"/>
+      <c r="O105" s="62"/>
+      <c r="P105" s="62"/>
+      <c r="Q105" s="62"/>
+      <c r="R105" s="62"/>
+      <c r="S105" s="62"/>
+      <c r="T105" s="62"/>
+      <c r="U105" s="62"/>
+      <c r="V105" s="62"/>
+      <c r="W105" s="62"/>
+      <c r="X105" s="62"/>
+      <c r="Y105" s="62"/>
+      <c r="Z105" s="62"/>
+      <c r="AA105" s="62"/>
+      <c r="AB105" s="62"/>
+      <c r="AC105" s="62"/>
+      <c r="AD105" s="62"/>
+      <c r="AE105" s="62"/>
+      <c r="AF105" s="62"/>
+      <c r="AG105" s="62"/>
+      <c r="AH105" s="62"/>
+      <c r="AI105" s="62"/>
+      <c r="AJ105" s="62"/>
+      <c r="AK105" s="62"/>
+      <c r="AL105" s="62"/>
+      <c r="AM105" s="60"/>
+      <c r="AN105" s="60"/>
+      <c r="AO105" s="61"/>
+    </row>
+    <row r="106" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="60"/>
+      <c r="B106" s="60"/>
+      <c r="C106" s="61"/>
+      <c r="D106" s="62"/>
+      <c r="E106" s="62"/>
+      <c r="F106" s="62"/>
+      <c r="G106" s="61"/>
+      <c r="H106" s="62"/>
+      <c r="I106" s="61"/>
+      <c r="J106" s="62"/>
+      <c r="K106" s="62"/>
+      <c r="L106" s="62"/>
+      <c r="M106" s="62"/>
+      <c r="N106" s="62"/>
+      <c r="O106" s="62"/>
+      <c r="P106" s="62"/>
+      <c r="Q106" s="62"/>
+      <c r="R106" s="62"/>
+      <c r="S106" s="62"/>
+      <c r="T106" s="62"/>
+      <c r="U106" s="62"/>
+      <c r="V106" s="62"/>
+      <c r="W106" s="62"/>
+      <c r="X106" s="62"/>
+      <c r="Y106" s="62"/>
+      <c r="Z106" s="62"/>
+      <c r="AA106" s="62"/>
+      <c r="AB106" s="62"/>
+      <c r="AC106" s="62"/>
+      <c r="AD106" s="62"/>
+      <c r="AE106" s="62"/>
+      <c r="AF106" s="62"/>
+      <c r="AG106" s="62"/>
+      <c r="AH106" s="62"/>
+      <c r="AI106" s="62"/>
+      <c r="AJ106" s="62"/>
+      <c r="AK106" s="62"/>
+      <c r="AL106" s="62"/>
+      <c r="AM106" s="60"/>
+      <c r="AN106" s="60"/>
+      <c r="AO106" s="61"/>
+    </row>
+    <row r="107" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="60"/>
+      <c r="B107" s="60"/>
+      <c r="C107" s="61"/>
+      <c r="D107" s="62"/>
+      <c r="E107" s="62"/>
+      <c r="F107" s="62"/>
+      <c r="G107" s="61"/>
+      <c r="H107" s="62"/>
+      <c r="I107" s="61"/>
+      <c r="J107" s="62"/>
+      <c r="K107" s="62"/>
+      <c r="L107" s="62"/>
+      <c r="M107" s="62"/>
+      <c r="N107" s="62"/>
+      <c r="O107" s="62"/>
+      <c r="P107" s="62"/>
+      <c r="Q107" s="62"/>
+      <c r="R107" s="62"/>
+      <c r="S107" s="62"/>
+      <c r="T107" s="62"/>
+      <c r="U107" s="62"/>
+      <c r="V107" s="62"/>
+      <c r="W107" s="62"/>
+      <c r="X107" s="62"/>
+      <c r="Y107" s="62"/>
+      <c r="Z107" s="62"/>
+      <c r="AA107" s="62"/>
+      <c r="AB107" s="62"/>
+      <c r="AC107" s="62"/>
+      <c r="AD107" s="62"/>
+      <c r="AE107" s="62"/>
+      <c r="AF107" s="62"/>
+      <c r="AG107" s="62"/>
+      <c r="AH107" s="62"/>
+      <c r="AI107" s="62"/>
+      <c r="AJ107" s="62"/>
+      <c r="AK107" s="62"/>
+      <c r="AL107" s="62"/>
+      <c r="AM107" s="60"/>
+      <c r="AN107" s="60"/>
+      <c r="AO107" s="61"/>
+    </row>
+    <row r="108" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="60"/>
+      <c r="B108" s="60"/>
+      <c r="C108" s="61"/>
+      <c r="D108" s="62"/>
+      <c r="E108" s="62"/>
+      <c r="F108" s="62"/>
+      <c r="G108" s="61"/>
+      <c r="H108" s="62"/>
+      <c r="I108" s="61"/>
+      <c r="J108" s="62"/>
+      <c r="K108" s="62"/>
+      <c r="L108" s="62"/>
+      <c r="M108" s="62"/>
+      <c r="N108" s="62"/>
+      <c r="O108" s="62"/>
+      <c r="P108" s="62"/>
+      <c r="Q108" s="62"/>
+      <c r="R108" s="62"/>
+      <c r="S108" s="62"/>
+      <c r="T108" s="62"/>
+      <c r="U108" s="62"/>
+      <c r="V108" s="62"/>
+      <c r="W108" s="62"/>
+      <c r="X108" s="62"/>
+      <c r="Y108" s="62"/>
+      <c r="Z108" s="62"/>
+      <c r="AA108" s="62"/>
+      <c r="AB108" s="62"/>
+      <c r="AC108" s="62"/>
+      <c r="AD108" s="62"/>
+      <c r="AE108" s="62"/>
+      <c r="AF108" s="62"/>
+      <c r="AG108" s="62"/>
+      <c r="AH108" s="62"/>
+      <c r="AI108" s="62"/>
+      <c r="AJ108" s="62"/>
+      <c r="AK108" s="62"/>
+      <c r="AL108" s="62"/>
+      <c r="AM108" s="60"/>
+      <c r="AN108" s="60"/>
+      <c r="AO108" s="61"/>
+    </row>
+    <row r="109" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="60"/>
+      <c r="B109" s="60"/>
+      <c r="C109" s="60"/>
+      <c r="D109" s="60"/>
+      <c r="E109" s="60"/>
+      <c r="F109" s="60"/>
+      <c r="G109" s="60"/>
+      <c r="H109" s="60"/>
+      <c r="I109" s="60"/>
+      <c r="J109" s="60"/>
+      <c r="K109" s="60"/>
+      <c r="L109" s="60"/>
+      <c r="M109" s="60"/>
+      <c r="N109" s="60"/>
+      <c r="O109" s="60"/>
+      <c r="P109" s="60"/>
+      <c r="Q109" s="60"/>
+      <c r="R109" s="60"/>
+      <c r="S109" s="60"/>
+      <c r="T109" s="60"/>
+      <c r="U109" s="60"/>
+      <c r="V109" s="60"/>
+      <c r="W109" s="60"/>
+      <c r="X109" s="60"/>
+      <c r="Y109" s="60"/>
+      <c r="Z109" s="60"/>
+      <c r="AA109" s="60"/>
+      <c r="AB109" s="60"/>
+      <c r="AC109" s="60"/>
+      <c r="AD109" s="60"/>
+      <c r="AE109" s="60"/>
+      <c r="AF109" s="60"/>
+      <c r="AG109" s="60"/>
+      <c r="AH109" s="60"/>
+      <c r="AI109" s="60"/>
+      <c r="AJ109" s="60"/>
+      <c r="AK109" s="60"/>
+      <c r="AL109" s="60"/>
+      <c r="AM109" s="60"/>
+      <c r="AN109" s="60"/>
+      <c r="AO109" s="61"/>
+    </row>
+    <row r="110" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="61"/>
+      <c r="B110" s="61"/>
+      <c r="C110" s="61"/>
+      <c r="D110" s="61"/>
+      <c r="E110" s="61"/>
+      <c r="F110" s="61"/>
+      <c r="G110" s="61"/>
+      <c r="H110" s="61"/>
+      <c r="I110" s="61"/>
+      <c r="J110" s="61"/>
+      <c r="K110" s="61"/>
+      <c r="L110" s="61"/>
+      <c r="M110" s="61"/>
+      <c r="N110" s="61"/>
+      <c r="O110" s="61"/>
+      <c r="P110" s="61"/>
+      <c r="Q110" s="61"/>
+      <c r="R110" s="61"/>
+      <c r="S110" s="61"/>
+      <c r="T110" s="61"/>
+      <c r="U110" s="61"/>
+      <c r="V110" s="61"/>
+      <c r="W110" s="61"/>
+      <c r="X110" s="61"/>
+      <c r="Y110" s="61"/>
+      <c r="Z110" s="61"/>
+      <c r="AA110" s="61"/>
+      <c r="AB110" s="61"/>
+      <c r="AC110" s="61"/>
+      <c r="AD110" s="61"/>
+      <c r="AE110" s="61"/>
+      <c r="AF110" s="61"/>
+      <c r="AG110" s="61"/>
+      <c r="AH110" s="61"/>
+      <c r="AI110" s="61"/>
+      <c r="AJ110" s="61"/>
+      <c r="AK110" s="61"/>
+      <c r="AL110" s="61"/>
+      <c r="AM110" s="61"/>
+      <c r="AN110" s="61"/>
+      <c r="AO110" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="15">
